--- a/docs/projeto-final/pfc/apendices/APÊNDICE D - ESTIMATIVA DE TEMPO POR PONTOS DE CASOS DE USO/ESTIMATIVA POR CASOS DE USO.xlsx
+++ b/docs/projeto-final/pfc/apendices/APÊNDICE D - ESTIMATIVA DE TEMPO POR PONTOS DE CASOS DE USO/ESTIMATIVA POR CASOS DE USO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateusjbarbosa/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateusjbarbosa/Desktop/Desenvolvimento/repositorios/fai/fai.etanois.docs/docs/projeto-final/pfc/apendices/APÊNDICE D - ESTIMATIVA DE TEMPO POR PONTOS DE CASOS DE USO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF28898-E536-9947-AA6A-3A6B961C8401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4954916-BC86-F84B-92CD-9BD58770E269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="PCU-Fase 2" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PCU-Fase 2'!$I$30:$I$32</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">'PCU-Fase 2'!$I$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PCU-Fase 2'!$I$32:$I$34</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">'PCU-Fase 2'!$I$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="158">
   <si>
     <t>Descrição</t>
   </si>
@@ -420,9 +420,6 @@
     <t>Acessar Motorista</t>
   </si>
   <si>
-    <t>Deletar Motorista</t>
-  </si>
-  <si>
     <t>Alterar senha do Motorista</t>
   </si>
   <si>
@@ -445,6 +442,72 @@
   </si>
   <si>
     <t>Traçar rotas entre duas localizações</t>
+  </si>
+  <si>
+    <t>Frentista</t>
+  </si>
+  <si>
+    <t>PagSeguro</t>
+  </si>
+  <si>
+    <t>Inativar Motorista</t>
+  </si>
+  <si>
+    <t>Cadastrar Posto de Combustível</t>
+  </si>
+  <si>
+    <t>Editar Posto de Combustível</t>
+  </si>
+  <si>
+    <t>Cadastrar serviços do Posto de Combustível</t>
+  </si>
+  <si>
+    <t>Inativar Posto de Combustível</t>
+  </si>
+  <si>
+    <t>Cadastrar combustíveis disponíveis</t>
+  </si>
+  <si>
+    <t>Editar preços dos combustíveis</t>
+  </si>
+  <si>
+    <t>Cadastrar cartão de crédito/débito</t>
+  </si>
+  <si>
+    <t>Mostrar raio de busca por postos de combustível</t>
+  </si>
+  <si>
+    <t>Listar postos visíveis dentro do raio de busca</t>
+  </si>
+  <si>
+    <t>Mostrar dados do posto</t>
+  </si>
+  <si>
+    <t>Mostrar preços dos combustíveis do posto</t>
+  </si>
+  <si>
+    <t>Mostrar distância do usuário até o posto</t>
+  </si>
+  <si>
+    <t>Mostrar todos os postos disponíveis na rota definida</t>
+  </si>
+  <si>
+    <t>Gerar QR Code de pagamento</t>
+  </si>
+  <si>
+    <t>Visualizar repasses de vendas para o Etanóis</t>
+  </si>
+  <si>
+    <t>Realizar pagamento por meio de leitura do QR Code</t>
+  </si>
+  <si>
+    <t>Receber cashback após o pagamento</t>
+  </si>
+  <si>
+    <t>Visualizar Etacoins disponíveis</t>
+  </si>
+  <si>
+    <t>Possuir manual do usuário</t>
   </si>
 </sst>
 </file>
@@ -943,7 +1006,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,16 +1204,103 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,9 +1318,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1201,89 +1348,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1624,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U122"/>
+  <dimension ref="A1:U143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1646,17 +1718,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
@@ -1673,11 +1745,11 @@
       <c r="A3" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
@@ -1845,31 +1917,31 @@
       <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="38" t="s">
         <v>2</v>
       </c>
@@ -1878,15 +1950,15 @@
       <c r="A18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="40">
         <v>1</v>
       </c>
@@ -1895,15 +1967,15 @@
       <c r="A19" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="40">
         <v>2</v>
       </c>
@@ -1915,15 +1987,15 @@
       <c r="A20" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="40">
         <v>3</v>
       </c>
@@ -1951,985 +2023,616 @@
       <c r="A22" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="106"/>
+      <c r="C22" s="96"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="74">
+      <c r="B23" s="80">
         <v>3</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="80">
+        <v>2</v>
+      </c>
+      <c r="C24" s="81"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="74">
+      <c r="B25" s="80">
         <v>3</v>
       </c>
-      <c r="C24" s="75"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="70" t="s">
+      <c r="C25" s="81"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="80">
+        <v>2</v>
+      </c>
+      <c r="C26" s="81"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="74">
+      <c r="B27" s="80">
         <v>2</v>
       </c>
-      <c r="C25" s="75"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+      <c r="C27" s="81"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="118">
-        <f>SUM(B23:C25)</f>
-        <v>8</v>
-      </c>
-      <c r="C26" s="119"/>
-    </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="110" t="s">
+      <c r="B28" s="78">
+        <f>SUM(B23:C27)</f>
+        <v>12</v>
+      </c>
+      <c r="C28" s="79"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-    </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="69" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B31" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="38" t="s">
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="38" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="40">
-        <v>10</v>
-      </c>
-      <c r="J31" s="3">
-        <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="40">
+        <v>10</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="40">
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="40">
         <v>15</v>
       </c>
-      <c r="J32" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J33" s="3">
+      <c r="J34" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J35" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="69" t="s">
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="105" t="s">
+      <c r="B36" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3">
+      <c r="C36" s="96"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="128" t="s">
+    <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="74">
-        <v>5</v>
-      </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="J35" s="3">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="74">
-        <v>5</v>
-      </c>
-      <c r="C36" s="75"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="J36" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="128" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="74">
-        <v>5</v>
-      </c>
-      <c r="C37" s="75"/>
+      <c r="B37" s="129">
+        <v>5</v>
+      </c>
+      <c r="C37" s="130"/>
+      <c r="D37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
+      <c r="J37" s="3">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="74">
-        <v>5</v>
-      </c>
-      <c r="C38" s="75"/>
+      <c r="A38" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="129">
+        <v>5</v>
+      </c>
+      <c r="C38" s="130"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
+      <c r="J38" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="74">
-        <v>5</v>
-      </c>
-      <c r="C39" s="75"/>
+      <c r="A39" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="129">
+        <v>5</v>
+      </c>
+      <c r="C39" s="130"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A40" s="128" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="74">
-        <v>5</v>
-      </c>
-      <c r="C40" s="75"/>
+    </row>
+    <row r="40" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A40" s="131" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="129">
+        <v>5</v>
+      </c>
+      <c r="C40" s="130"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A41" s="128" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="74">
-        <v>5</v>
-      </c>
-      <c r="C41" s="75"/>
+    <row r="41" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="129">
+        <v>5</v>
+      </c>
+      <c r="C41" s="130"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A42" s="128" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="74">
-        <v>5</v>
-      </c>
-      <c r="C42" s="75"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A42" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="129">
+        <v>5</v>
+      </c>
+      <c r="C42" s="130"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A43" s="128" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="74">
-        <v>5</v>
-      </c>
-      <c r="C43" s="75"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="129">
+        <v>5</v>
+      </c>
+      <c r="C43" s="130"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A44" s="128" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="74">
-        <v>5</v>
-      </c>
-      <c r="C44" s="75"/>
+      <c r="A44" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="129">
+        <v>5</v>
+      </c>
+      <c r="C44" s="130"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A45" s="128" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="74">
-        <v>5</v>
-      </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A45" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="129">
+        <v>5</v>
+      </c>
+      <c r="C45" s="130"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A46" s="128" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="74">
-        <v>5</v>
-      </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="129">
+        <v>5</v>
+      </c>
+      <c r="C46" s="130"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="102">
-        <f>SUM(B35:B46)</f>
-        <v>60</v>
-      </c>
-      <c r="C47" s="103"/>
-      <c r="D47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="10"/>
+    <row r="47" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="129">
+        <v>5</v>
+      </c>
+      <c r="C47" s="130"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="10"/>
+    <row r="48" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A48" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="129">
+        <v>5</v>
+      </c>
+      <c r="C48" s="130"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
+    </row>
+    <row r="49" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A49" s="131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="129">
+        <v>5</v>
+      </c>
+      <c r="C49" s="130"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A50" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="129">
+        <v>5</v>
+      </c>
+      <c r="C50" s="130"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A51" s="131" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="129">
+        <v>5</v>
+      </c>
+      <c r="C51" s="130"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A52" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="129">
+        <v>5</v>
+      </c>
+      <c r="C52" s="130"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A53" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="129">
+        <v>5</v>
+      </c>
+      <c r="C53" s="130"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A54" s="131" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="129">
+        <v>5</v>
+      </c>
+      <c r="C54" s="130"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A55" s="131" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="129">
+        <v>5</v>
+      </c>
+      <c r="C55" s="130"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="129">
+        <v>5</v>
+      </c>
+      <c r="C56" s="130"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A57" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="129">
+        <v>5</v>
+      </c>
+      <c r="C57" s="130"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A58" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="129">
+        <v>5</v>
+      </c>
+      <c r="C58" s="130"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A59" s="131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="129">
+        <v>5</v>
+      </c>
+      <c r="C59" s="130"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A60" s="131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="129">
+        <v>5</v>
+      </c>
+      <c r="C60" s="130"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A61" s="131" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="129">
+        <v>5</v>
+      </c>
+      <c r="C61" s="130"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="131" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="129">
+        <v>5</v>
+      </c>
+      <c r="C62" s="130"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A63" s="131" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="129">
+        <v>5</v>
+      </c>
+      <c r="C63" s="130"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A64" s="131" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="129">
+        <v>5</v>
+      </c>
+      <c r="C64" s="130"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:21" ht="28" x14ac:dyDescent="0.15">
+      <c r="A65" s="131" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="129">
+        <v>5</v>
+      </c>
+      <c r="C65" s="130"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="129">
+        <v>5</v>
+      </c>
+      <c r="C66" s="130"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+      <c r="A67" s="131" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="129">
+        <v>5</v>
+      </c>
+      <c r="C67" s="130"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A68" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="103">
+        <f>SUM(B37:B60)</f>
+        <v>120</v>
+      </c>
+      <c r="C68" s="104"/>
+      <c r="D68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A69" s="9"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="118">
-        <f>B26+B47</f>
-        <v>68</v>
-      </c>
-      <c r="C49" s="119"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-    </row>
-    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="110" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A52" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A53" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A54" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A55" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-    </row>
-    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G56" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56" s="110"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A57" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="40">
-        <v>2</v>
-      </c>
-      <c r="G57" s="51">
-        <v>5</v>
-      </c>
-      <c r="H57" s="99">
-        <f>F57*G57</f>
-        <v>10</v>
-      </c>
-      <c r="I57" s="99"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A58" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="40">
-        <v>1</v>
-      </c>
-      <c r="G58" s="51">
-        <v>5</v>
-      </c>
-      <c r="H58" s="99">
-        <f t="shared" ref="H58:H69" si="0">F58*G58</f>
-        <v>5</v>
-      </c>
-      <c r="I58" s="99"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A59" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="40">
-        <v>1</v>
-      </c>
-      <c r="G59" s="51">
-        <v>2</v>
-      </c>
-      <c r="H59" s="99">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I59" s="99"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A60" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="40">
-        <v>1</v>
-      </c>
-      <c r="G60" s="51">
-        <v>4</v>
-      </c>
-      <c r="H60" s="99">
-        <f>F60*G60</f>
-        <v>4</v>
-      </c>
-      <c r="I60" s="99"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A61" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="40">
-        <v>1</v>
-      </c>
-      <c r="G61" s="51">
-        <v>0</v>
-      </c>
-      <c r="H61" s="99">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="99"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A62" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G62" s="51">
-        <v>5</v>
-      </c>
-      <c r="H62" s="99">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="I62" s="99"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A63" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G63" s="51">
-        <v>5</v>
-      </c>
-      <c r="H63" s="99">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="I63" s="99"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A64" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="40">
-        <v>2</v>
-      </c>
-      <c r="G64" s="51">
-        <v>5</v>
-      </c>
-      <c r="H64" s="99">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I64" s="99"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A65" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="40">
-        <v>1</v>
-      </c>
-      <c r="G65" s="51">
-        <v>3</v>
-      </c>
-      <c r="H65" s="99">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I65" s="99"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A66" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="40">
-        <v>1</v>
-      </c>
-      <c r="G66" s="51">
-        <v>4</v>
-      </c>
-      <c r="H66" s="99">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I66" s="99"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A67" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="40">
-        <v>1</v>
-      </c>
-      <c r="G67" s="51">
-        <v>5</v>
-      </c>
-      <c r="H67" s="99">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I67" s="99"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A68" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="40">
-        <v>1</v>
-      </c>
-      <c r="G68" s="51">
-        <v>2</v>
-      </c>
-      <c r="H68" s="99">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I68" s="99"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A69" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="40">
-        <v>1</v>
-      </c>
-      <c r="G69" s="51">
-        <v>2</v>
-      </c>
-      <c r="H69" s="99">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I69" s="99"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-    </row>
-    <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="126"/>
-      <c r="C70" s="126"/>
-      <c r="D70" s="126"/>
-      <c r="E70" s="126"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="127"/>
-      <c r="H70" s="118">
-        <f>0.6+(0.01*(SUM(H57:I69)))</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I70" s="119"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
+      <c r="B70" s="78">
+        <f>B28+B68</f>
+        <v>132</v>
+      </c>
+      <c r="C70" s="79"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -2951,14 +2654,14 @@
       <c r="U71" s="9"/>
     </row>
     <row r="72" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="B72" s="88"/>
-      <c r="C72" s="88"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
+      <c r="A72" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
       <c r="G72" s="77"/>
       <c r="H72" s="77"/>
       <c r="I72" s="77"/>
@@ -2975,17 +2678,17 @@
       <c r="U72" s="9"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A73" s="100" t="s">
+      <c r="A73" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="80"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -2999,17 +2702,17 @@
       <c r="U73" s="9"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A74" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="77"/>
-      <c r="I74" s="77"/>
+      <c r="A74" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="75"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="75"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -3023,17 +2726,17 @@
       <c r="U74" s="9"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A75" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="77"/>
+      <c r="A75" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="75"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -3047,8 +2750,8 @@
       <c r="U75" s="9"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A76" s="80" t="s">
-        <v>113</v>
+      <c r="A76" s="75" t="s">
+        <v>82</v>
       </c>
       <c r="B76" s="77"/>
       <c r="C76" s="77"/>
@@ -3072,24 +2775,24 @@
     </row>
     <row r="77" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="G77" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I77" s="38" t="s">
+      <c r="H77" s="87" t="s">
         <v>55</v>
       </c>
+      <c r="I77" s="87"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
@@ -3104,29 +2807,25 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B78" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="H78" s="51">
-        <v>3</v>
-      </c>
-      <c r="I78" s="16">
-        <f>G78*H78</f>
-        <v>4.5</v>
-      </c>
-      <c r="J78" s="3">
-        <f t="shared" ref="J78:J83" si="1">IF(H78&lt;3,1,0)</f>
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B78" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="40">
+        <v>2</v>
+      </c>
+      <c r="G78" s="51">
+        <v>5</v>
+      </c>
+      <c r="H78" s="76">
+        <f>F78*G78</f>
+        <v>10</v>
+      </c>
+      <c r="I78" s="76"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
@@ -3141,724 +2840,1378 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="75"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="40">
+        <v>1</v>
+      </c>
+      <c r="G79" s="51">
+        <v>5</v>
+      </c>
+      <c r="H79" s="76">
+        <f t="shared" ref="H79:H90" si="0">F79*G79</f>
+        <v>5</v>
+      </c>
+      <c r="I79" s="76"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A80" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="75"/>
+      <c r="D80" s="75"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="40">
+        <v>1</v>
+      </c>
+      <c r="G80" s="51">
+        <v>2</v>
+      </c>
+      <c r="H80" s="76">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I80" s="76"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A81" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="40">
+        <v>1</v>
+      </c>
+      <c r="G81" s="51">
+        <v>4</v>
+      </c>
+      <c r="H81" s="76">
+        <f>F81*G81</f>
+        <v>4</v>
+      </c>
+      <c r="I81" s="76"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A82" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="40">
+        <v>1</v>
+      </c>
+      <c r="G82" s="51">
+        <v>0</v>
+      </c>
+      <c r="H82" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="76"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A83" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="75"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G83" s="51">
+        <v>5</v>
+      </c>
+      <c r="H83" s="76">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I83" s="76"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A84" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="51">
+        <v>5</v>
+      </c>
+      <c r="H84" s="76">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I84" s="76"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A85" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="40">
+        <v>2</v>
+      </c>
+      <c r="G85" s="51">
+        <v>5</v>
+      </c>
+      <c r="H85" s="76">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I85" s="76"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A86" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="40">
+        <v>1</v>
+      </c>
+      <c r="G86" s="51">
+        <v>3</v>
+      </c>
+      <c r="H86" s="76">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I86" s="76"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A87" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="40">
+        <v>1</v>
+      </c>
+      <c r="G87" s="51">
+        <v>4</v>
+      </c>
+      <c r="H87" s="76">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I87" s="76"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A88" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="75"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="40">
+        <v>1</v>
+      </c>
+      <c r="G88" s="51">
+        <v>5</v>
+      </c>
+      <c r="H88" s="76">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I88" s="76"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A89" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="75"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="40">
+        <v>1</v>
+      </c>
+      <c r="G89" s="51">
+        <v>2</v>
+      </c>
+      <c r="H89" s="76">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I89" s="76"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A90" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="75"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="40">
+        <v>1</v>
+      </c>
+      <c r="G90" s="51">
+        <v>2</v>
+      </c>
+      <c r="H90" s="76">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I90" s="76"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+    </row>
+    <row r="91" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="108"/>
+      <c r="G91" s="109"/>
+      <c r="H91" s="78">
+        <f>0.6+(0.01*(SUM(H78:I90)))</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I91" s="79"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+    </row>
+    <row r="93" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="94"/>
+      <c r="C93" s="94"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="77"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A94" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="75"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="75"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="75"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A95" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="75"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="75"/>
+      <c r="H95" s="77"/>
+      <c r="I95" s="77"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A96" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="77"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A97" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="77"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="77"/>
+      <c r="H97" s="77"/>
+      <c r="I97" s="77"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+    </row>
+    <row r="98" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="75"/>
+      <c r="G98" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A99" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="H99" s="51">
+        <v>3</v>
+      </c>
+      <c r="I99" s="16">
+        <f>G99*H99</f>
+        <v>4.5</v>
+      </c>
+      <c r="J99" s="3">
+        <f t="shared" ref="J99:J104" si="1">IF(H99&lt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A100" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B79" s="100" t="s">
+      <c r="B100" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="40">
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="40">
         <v>0.5</v>
       </c>
-      <c r="H79" s="51">
+      <c r="H100" s="51">
         <v>4</v>
       </c>
-      <c r="I79" s="16">
-        <f t="shared" ref="I79:I85" si="2">G79*H79</f>
+      <c r="I100" s="16">
+        <f t="shared" ref="I100:I106" si="2">G100*H100</f>
         <v>2</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J100" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A80" s="40" t="s">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A101" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="80" t="s">
+      <c r="B101" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="80"/>
-      <c r="D80" s="80"/>
-      <c r="E80" s="80"/>
-      <c r="F80" s="80"/>
-      <c r="G80" s="40">
+      <c r="C101" s="75"/>
+      <c r="D101" s="75"/>
+      <c r="E101" s="75"/>
+      <c r="F101" s="75"/>
+      <c r="G101" s="40">
         <v>1</v>
       </c>
-      <c r="H80" s="51">
-        <v>5</v>
-      </c>
-      <c r="I80" s="16">
+      <c r="H101" s="51">
+        <v>5</v>
+      </c>
+      <c r="I101" s="16">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J101" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" s="40" t="s">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A102" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="80" t="s">
+      <c r="B102" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="80"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="80"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="40">
+      <c r="C102" s="75"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="40">
         <v>0.5</v>
       </c>
-      <c r="H81" s="51">
+      <c r="H102" s="51">
         <v>3</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I102" s="16">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J102" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="40" t="s">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A103" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="80" t="s">
+      <c r="B103" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="40">
+      <c r="C103" s="75"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="40">
         <v>1</v>
       </c>
-      <c r="H82" s="51">
+      <c r="H103" s="51">
         <v>4</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I103" s="16">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J103" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" s="40" t="s">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A104" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="120" t="s">
+      <c r="B104" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="E83" s="80"/>
-      <c r="F83" s="80"/>
-      <c r="G83" s="40">
+      <c r="C104" s="75"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="40">
         <v>2</v>
       </c>
-      <c r="H83" s="51">
+      <c r="H104" s="51">
         <v>4</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I104" s="16">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J104" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" s="40" t="s">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A105" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="80" t="s">
+      <c r="B105" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="80"/>
-      <c r="D84" s="80"/>
-      <c r="E84" s="80"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="40">
+      <c r="C105" s="75"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="75"/>
+      <c r="F105" s="75"/>
+      <c r="G105" s="40">
         <v>-1</v>
       </c>
-      <c r="H84" s="51">
-        <v>5</v>
-      </c>
-      <c r="I84" s="16">
+      <c r="H105" s="51">
+        <v>5</v>
+      </c>
+      <c r="I105" s="16">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="J84" s="3">
-        <f>IF(H84&gt;3,1,0)</f>
+      <c r="J105" s="3">
+        <f>IF(H105&gt;3,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A85" s="40" t="s">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A106" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="80" t="s">
+      <c r="B106" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="80"/>
-      <c r="D85" s="80"/>
-      <c r="E85" s="80"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="40">
+      <c r="C106" s="75"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="75"/>
+      <c r="G106" s="40">
         <v>-1</v>
       </c>
-      <c r="H85" s="51">
+      <c r="H106" s="51">
         <v>2</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I106" s="16">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="J85" s="3">
-        <f>IF(H85&gt;3,1,0)</f>
+      <c r="J106" s="3">
+        <f>IF(H106&gt;3,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="121" t="s">
+    <row r="107" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="122"/>
-      <c r="C86" s="122"/>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
-      <c r="F86" s="122"/>
-      <c r="G86" s="122"/>
-      <c r="H86" s="123"/>
-      <c r="I86" s="18">
-        <f>1.4+(-0.03*(SUM(I78:I85)))</f>
+      <c r="B107" s="92"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="93"/>
+      <c r="I107" s="18">
+        <f>1.4+(-0.03*(SUM(I99:I106)))</f>
         <v>0.85999999999999988</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="42" t="s">
+    <row r="109" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="72">
-        <f>(B49*H70*I86)</f>
-        <v>65.497600000000006</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
-      <c r="B89" s="13"/>
-    </row>
-    <row r="90" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A90" s="115" t="s">
+      <c r="B109" s="72">
+        <f>(B70*H91*I107)</f>
+        <v>127.14239999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+    </row>
+    <row r="111" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A111" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="116"/>
-      <c r="C90" s="116"/>
-      <c r="D90" s="116"/>
-      <c r="E90" s="116"/>
-      <c r="F90" s="116"/>
-      <c r="G90" s="116"/>
-      <c r="H90" s="116"/>
-      <c r="I90" s="116"/>
-    </row>
-    <row r="92" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A92" s="101" t="s">
+      <c r="B111" s="86"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="86"/>
+      <c r="E111" s="86"/>
+      <c r="F111" s="86"/>
+      <c r="G111" s="86"/>
+      <c r="H111" s="86"/>
+      <c r="I111" s="86"/>
+    </row>
+    <row r="113" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A113" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="101"/>
-      <c r="C92" s="101"/>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101"/>
-      <c r="F92" s="101"/>
-      <c r="G92" s="101"/>
-      <c r="H92" s="101"/>
-    </row>
-    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="69" t="s">
+      <c r="B113" s="102"/>
+      <c r="C113" s="102"/>
+      <c r="D113" s="102"/>
+      <c r="E113" s="102"/>
+      <c r="F113" s="102"/>
+      <c r="G113" s="102"/>
+      <c r="H113" s="102"/>
+    </row>
+    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B114" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C93" s="43" t="s">
+      <c r="C114" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D93" s="41" t="s">
+      <c r="D114" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E93" s="41" t="s">
+      <c r="E114" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F93" s="41" t="s">
+      <c r="F114" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G93" s="41" t="s">
+      <c r="G114" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="H93" s="65" t="s">
+      <c r="H114" s="65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="42"/>
-      <c r="B94" s="73">
-        <f>B88</f>
-        <v>65.497600000000006</v>
-      </c>
-      <c r="C94" s="22">
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="42"/>
+      <c r="B115" s="73">
+        <f>B109</f>
+        <v>127.14239999999998</v>
+      </c>
+      <c r="C115" s="22">
         <v>20</v>
       </c>
-      <c r="D94" s="21">
-        <f>B94*C94</f>
-        <v>1309.9520000000002</v>
-      </c>
-      <c r="E94" s="21">
-        <f>D94/8</f>
-        <v>163.74400000000003</v>
-      </c>
-      <c r="F94" s="23">
-        <f>E94/20</f>
-        <v>8.1872000000000007</v>
-      </c>
-      <c r="G94" s="48">
+      <c r="D115" s="21">
+        <f>B115*C115</f>
+        <v>2542.8479999999995</v>
+      </c>
+      <c r="E115" s="21">
+        <f>D115/8</f>
+        <v>317.85599999999994</v>
+      </c>
+      <c r="F115" s="23">
+        <f>E115/20</f>
+        <v>15.892799999999998</v>
+      </c>
+      <c r="G115" s="48">
         <v>15</v>
       </c>
-      <c r="H94" s="24">
-        <f>G94*D94</f>
-        <v>19649.280000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="49">
+      <c r="H115" s="24">
+        <f>G115*D115</f>
+        <v>38142.719999999994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="49">
         <v>3</v>
       </c>
-      <c r="B95" s="45"/>
-      <c r="C95" s="46"/>
-      <c r="D95" s="21">
-        <f>D94/A95</f>
-        <v>436.65066666666672</v>
-      </c>
-      <c r="E95" s="21">
-        <f>D95/8</f>
-        <v>54.58133333333334</v>
-      </c>
-      <c r="F95" s="23">
-        <f>E95/20</f>
-        <v>2.7290666666666672</v>
-      </c>
-      <c r="G95" s="44"/>
-      <c r="H95" s="40"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-    </row>
-    <row r="98" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A99" s="92" t="s">
+      <c r="B116" s="45"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="21">
+        <f>D115/A116</f>
+        <v>847.61599999999987</v>
+      </c>
+      <c r="E116" s="21">
+        <f>D116/8</f>
+        <v>105.95199999999998</v>
+      </c>
+      <c r="F116" s="23">
+        <f>E116/20</f>
+        <v>5.2975999999999992</v>
+      </c>
+      <c r="G116" s="44"/>
+      <c r="H116" s="40"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+    </row>
+    <row r="119" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A120" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="B99" s="93"/>
-      <c r="C99" s="93"/>
-      <c r="D99" s="93"/>
-      <c r="E99" s="93"/>
-      <c r="F99" s="93"/>
-      <c r="G99" s="93"/>
-      <c r="H99" s="93"/>
-      <c r="I99" s="94"/>
-    </row>
-    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="95" t="s">
+      <c r="B120" s="123"/>
+      <c r="C120" s="123"/>
+      <c r="D120" s="123"/>
+      <c r="E120" s="123"/>
+      <c r="F120" s="123"/>
+      <c r="G120" s="123"/>
+      <c r="H120" s="123"/>
+      <c r="I120" s="124"/>
+    </row>
+    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B100" s="88"/>
-      <c r="C100" s="88"/>
-      <c r="D100" s="88"/>
-      <c r="E100" s="88"/>
-      <c r="F100" s="88"/>
-      <c r="G100" s="88"/>
-      <c r="H100" s="88"/>
-      <c r="I100" s="89"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="79" t="s">
+      <c r="B121" s="94"/>
+      <c r="C121" s="94"/>
+      <c r="D121" s="94"/>
+      <c r="E121" s="94"/>
+      <c r="F121" s="94"/>
+      <c r="G121" s="94"/>
+      <c r="H121" s="94"/>
+      <c r="I121" s="119"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="B101" s="80"/>
-      <c r="C101" s="80"/>
-      <c r="D101" s="80"/>
-      <c r="E101" s="80"/>
-      <c r="F101" s="80"/>
-      <c r="G101" s="80"/>
-      <c r="H101" s="80"/>
-      <c r="I101" s="81"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="79" t="s">
+      <c r="B122" s="75"/>
+      <c r="C122" s="75"/>
+      <c r="D122" s="75"/>
+      <c r="E122" s="75"/>
+      <c r="F122" s="75"/>
+      <c r="G122" s="75"/>
+      <c r="H122" s="75"/>
+      <c r="I122" s="112"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="B102" s="80"/>
-      <c r="C102" s="80"/>
-      <c r="D102" s="80"/>
-      <c r="E102" s="80"/>
-      <c r="F102" s="80"/>
-      <c r="G102" s="80"/>
-      <c r="H102" s="80"/>
-      <c r="I102" s="81"/>
-    </row>
-    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="96"/>
-      <c r="B103" s="97"/>
-      <c r="C103" s="97"/>
-      <c r="D103" s="97"/>
-      <c r="E103" s="97"/>
-      <c r="F103" s="98"/>
-      <c r="G103" s="82" t="s">
+      <c r="B123" s="75"/>
+      <c r="C123" s="75"/>
+      <c r="D123" s="75"/>
+      <c r="E123" s="75"/>
+      <c r="F123" s="75"/>
+      <c r="G123" s="75"/>
+      <c r="H123" s="75"/>
+      <c r="I123" s="112"/>
+    </row>
+    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="126"/>
+      <c r="B124" s="127"/>
+      <c r="C124" s="127"/>
+      <c r="D124" s="127"/>
+      <c r="E124" s="127"/>
+      <c r="F124" s="128"/>
+      <c r="G124" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="H103" s="83"/>
-      <c r="I103" s="19">
-        <f>SUM(J78:J83)</f>
+      <c r="H124" s="114"/>
+      <c r="I124" s="19">
+        <f>SUM(J99:J104)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="96"/>
-      <c r="B104" s="97"/>
-      <c r="C104" s="97"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="97"/>
-      <c r="F104" s="98"/>
-      <c r="G104" s="82" t="s">
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="126"/>
+      <c r="B125" s="127"/>
+      <c r="C125" s="127"/>
+      <c r="D125" s="127"/>
+      <c r="E125" s="127"/>
+      <c r="F125" s="128"/>
+      <c r="G125" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="H104" s="83"/>
-      <c r="I104" s="19">
-        <f>SUM(J84:J85)</f>
+      <c r="H125" s="114"/>
+      <c r="I125" s="19">
+        <f>SUM(J105:J106)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="96"/>
-      <c r="B105" s="97"/>
-      <c r="C105" s="97"/>
-      <c r="D105" s="97"/>
-      <c r="E105" s="97"/>
-      <c r="F105" s="98"/>
-      <c r="G105" s="82" t="s">
+    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="126"/>
+      <c r="B126" s="127"/>
+      <c r="C126" s="127"/>
+      <c r="D126" s="127"/>
+      <c r="E126" s="127"/>
+      <c r="F126" s="128"/>
+      <c r="G126" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H105" s="83"/>
-      <c r="I105" s="19">
-        <f>I103+I104</f>
+      <c r="H126" s="114"/>
+      <c r="I126" s="19">
+        <f>I124+I125</f>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="90" t="s">
+    <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="B106" s="91"/>
-      <c r="C106" s="91"/>
-      <c r="D106" s="91"/>
-      <c r="E106" s="91"/>
-      <c r="F106" s="91"/>
-      <c r="G106" s="91"/>
-      <c r="H106" s="91"/>
-      <c r="I106" s="20">
-        <f>C114</f>
+      <c r="B127" s="121"/>
+      <c r="C127" s="121"/>
+      <c r="D127" s="121"/>
+      <c r="E127" s="121"/>
+      <c r="F127" s="121"/>
+      <c r="G127" s="121"/>
+      <c r="H127" s="121"/>
+      <c r="I127" s="20">
+        <f>C135</f>
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="87" t="s">
+    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="88"/>
-      <c r="C107" s="88"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="88"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="88"/>
-      <c r="H107" s="88"/>
-      <c r="I107" s="89"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="104" t="s">
+      <c r="B128" s="94"/>
+      <c r="C128" s="94"/>
+      <c r="D128" s="94"/>
+      <c r="E128" s="94"/>
+      <c r="F128" s="94"/>
+      <c r="G128" s="94"/>
+      <c r="H128" s="94"/>
+      <c r="I128" s="119"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="77"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
-      <c r="I108" s="78"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="76" t="s">
+      <c r="B129" s="77"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="77"/>
+      <c r="F129" s="77"/>
+      <c r="G129" s="77"/>
+      <c r="H129" s="77"/>
+      <c r="I129" s="106"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="B109" s="77"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="78"/>
-    </row>
-    <row r="110" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="84" t="s">
+      <c r="B130" s="77"/>
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="77"/>
+      <c r="H130" s="77"/>
+      <c r="I130" s="106"/>
+    </row>
+    <row r="131" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="B110" s="85"/>
-      <c r="C110" s="85"/>
-      <c r="D110" s="85"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
-      <c r="H110" s="85"/>
-      <c r="I110" s="86"/>
-    </row>
-    <row r="112" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A112" s="101" t="s">
+      <c r="B131" s="116"/>
+      <c r="C131" s="116"/>
+      <c r="D131" s="116"/>
+      <c r="E131" s="116"/>
+      <c r="F131" s="116"/>
+      <c r="G131" s="116"/>
+      <c r="H131" s="116"/>
+      <c r="I131" s="117"/>
+    </row>
+    <row r="133" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A133" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="101"/>
-      <c r="C112" s="101"/>
-      <c r="D112" s="101"/>
-      <c r="E112" s="101"/>
-      <c r="F112" s="101"/>
-      <c r="G112" s="101"/>
-      <c r="H112" s="101"/>
-    </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="64" t="s">
+      <c r="B133" s="102"/>
+      <c r="C133" s="102"/>
+      <c r="D133" s="102"/>
+      <c r="E133" s="102"/>
+      <c r="F133" s="102"/>
+      <c r="G133" s="102"/>
+      <c r="H133" s="102"/>
+    </row>
+    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B113" s="41" t="s">
+      <c r="B134" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C113" s="43" t="s">
+      <c r="C134" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D113" s="41" t="s">
+      <c r="D134" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E113" s="41" t="s">
+      <c r="E134" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="41" t="s">
+      <c r="F134" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G113" s="41" t="s">
+      <c r="G134" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="H113" s="65" t="s">
+      <c r="H134" s="65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="42"/>
-      <c r="B114" s="73">
-        <f>B88</f>
-        <v>65.497600000000006</v>
-      </c>
-      <c r="C114" s="22">
-        <f>IF(I105&lt;=2,20,IF(I105&lt;5,28,"Reduzir a complexidade"))</f>
+    <row r="135" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="42"/>
+      <c r="B135" s="73">
+        <f>B109</f>
+        <v>127.14239999999998</v>
+      </c>
+      <c r="C135" s="22">
+        <f>IF(I126&lt;=2,20,IF(I126&lt;5,28,"Reduzir a complexidade"))</f>
         <v>20</v>
       </c>
-      <c r="D114" s="22">
-        <f>IF(I105&lt;=2,20*B114,IF(I105&lt;5,28*B114,"-"))</f>
-        <v>1309.9520000000002</v>
-      </c>
-      <c r="E114" s="22">
-        <f>IF(I105&lt;=2,20*B114/8,IF(I105&lt;5,28*B114/8,"-"))</f>
-        <v>163.74400000000003</v>
-      </c>
-      <c r="F114" s="25">
-        <f>IF(I105&lt;=2,20*B114/20/8,IF(I105&lt;5,28*B114/20/8,"-"))</f>
-        <v>8.1872000000000007</v>
-      </c>
-      <c r="G114" s="27">
-        <f>G94</f>
+      <c r="D135" s="22">
+        <f>IF(I126&lt;=2,20*B135,IF(I126&lt;5,28*B135,"-"))</f>
+        <v>2542.8479999999995</v>
+      </c>
+      <c r="E135" s="22">
+        <f>IF(I126&lt;=2,20*B135/8,IF(I126&lt;5,28*B135/8,"-"))</f>
+        <v>317.85599999999994</v>
+      </c>
+      <c r="F135" s="25">
+        <f>IF(I126&lt;=2,20*B135/20/8,IF(I126&lt;5,28*B135/20/8,"-"))</f>
+        <v>15.892799999999998</v>
+      </c>
+      <c r="G135" s="27">
+        <f>G115</f>
         <v>15</v>
       </c>
-      <c r="H114" s="26">
-        <f>IF(I105&lt;=2,20*B114*G114,IF(I105&lt;5,28*B114*G114,"-"))</f>
-        <v>19649.280000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="67">
-        <f>A95</f>
+      <c r="H135" s="26">
+        <f>IF(I126&lt;=2,20*B135*G135,IF(I126&lt;5,28*B135*G135,"-"))</f>
+        <v>38142.719999999994</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="67">
+        <f>A116</f>
         <v>3</v>
       </c>
-      <c r="B115" s="45"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="22">
-        <f>IF(I105&lt;=2,20*B114/A115,IF(I105&lt;5,28*B114/A115,"-"))</f>
-        <v>436.65066666666672</v>
-      </c>
-      <c r="E115" s="22">
-        <f>IF(I105&lt;=2,20*B114/A115/8,IF(I105&lt;5,28*B114/A115/8,"-"))</f>
-        <v>54.58133333333334</v>
-      </c>
-      <c r="F115" s="25">
-        <f>IF(I105&lt;=2,20*B114/A115/20/8,IF(I105&lt;5,28*B114/A115/20/8,"-"))</f>
-        <v>2.7290666666666672</v>
-      </c>
-      <c r="G115" s="44"/>
-      <c r="H115" s="40"/>
-    </row>
-    <row r="119" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="B136" s="45"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="22">
+        <f>IF(I126&lt;=2,20*B135/A136,IF(I126&lt;5,28*B135/A136,"-"))</f>
+        <v>847.61599999999987</v>
+      </c>
+      <c r="E136" s="22">
+        <f>IF(I126&lt;=2,20*B135/A136/8,IF(I126&lt;5,28*B135/A136/8,"-"))</f>
+        <v>105.95199999999998</v>
+      </c>
+      <c r="F136" s="25">
+        <f>IF(I126&lt;=2,20*B135/A136/20/8,IF(I126&lt;5,28*B135/A136/20/8,"-"))</f>
+        <v>5.2975999999999992</v>
+      </c>
+      <c r="G136" s="44"/>
+      <c r="H136" s="40"/>
+    </row>
+    <row r="140" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="47"/>
-      <c r="B120" s="1" t="s">
+    <row r="141" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="47"/>
+      <c r="B141" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="50"/>
-      <c r="B121" s="1" t="s">
+    <row r="142" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="50"/>
+      <c r="B142" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="17"/>
-      <c r="B122" s="53" t="s">
+    <row r="143" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="17"/>
+      <c r="B143" s="53" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="B49:C49"/>
+  <mergeCells count="121">
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A131:I131"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="A128:I128"/>
+    <mergeCell ref="A127:H127"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="H91:I91"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A73:I73"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="H82:I82"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A113:H113"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A129:I129"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="H85:I85"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="A93:I93"/>
+    <mergeCell ref="A94:I94"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="H78:I78"/>
     <mergeCell ref="A76:I76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A109:I109"/>
-    <mergeCell ref="A101:I101"/>
-    <mergeCell ref="A102:I102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="A107:I107"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A99:I99"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F47:F48" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F68:F69" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"5,10,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23:B25" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23:B27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$J$18:$J$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35:B46 C35:C37 C39:C46" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$I$30:$I$32</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37:C39 C41 B37:B67 C48:C50 C52:C53 C59:C60" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>$I$32:$I$34</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G57:G69 H78:H85" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G78:G90 H99:H106" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3866,7 +4219,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <cellWatches>
-    <cellWatch r="B35"/>
+    <cellWatch r="B37"/>
   </cellWatches>
 </worksheet>
 </file>
--- a/docs/projeto-final/pfc/apendices/APÊNDICE D - ESTIMATIVA DE TEMPO POR PONTOS DE CASOS DE USO/ESTIMATIVA POR CASOS DE USO.xlsx
+++ b/docs/projeto-final/pfc/apendices/APÊNDICE D - ESTIMATIVA DE TEMPO POR PONTOS DE CASOS DE USO/ESTIMATIVA POR CASOS DE USO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateusjbarbosa/Desktop/Desenvolvimento/repositorios/fai/fai.etanois.docs/docs/projeto-final/pfc/apendices/APÊNDICE D - ESTIMATIVA DE TEMPO POR PONTOS DE CASOS DE USO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4954916-BC86-F84B-92CD-9BD58770E269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3763A374-6CDA-E94C-9984-90BCFB502EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="PCU-Fase 2" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PCU-Fase 2'!$I$32:$I$34</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">'PCU-Fase 2'!$I$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PCU-Fase 2'!$I$33:$I$35</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">'PCU-Fase 2'!$I$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="159">
   <si>
     <t>Descrição</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>Possuir manual do usuário</t>
+  </si>
+  <si>
+    <t>Servidor SMTP</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1009,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1204,118 +1207,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1348,14 +1270,98 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1696,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U143"/>
+  <dimension ref="A1:U144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:H133"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1718,17 +1724,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
@@ -1745,11 +1751,11 @@
       <c r="A3" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
@@ -1917,31 +1923,31 @@
       <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="38" t="s">
         <v>2</v>
       </c>
@@ -1950,15 +1956,15 @@
       <c r="A18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
       <c r="I18" s="40">
         <v>1</v>
       </c>
@@ -1967,15 +1973,15 @@
       <c r="A19" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
       <c r="I19" s="40">
         <v>2</v>
       </c>
@@ -1987,15 +1993,15 @@
       <c r="A20" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
       <c r="I20" s="40">
         <v>3</v>
       </c>
@@ -2023,648 +2029,633 @@
       <c r="A22" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="96"/>
+      <c r="C22" s="116"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="80">
+      <c r="B23" s="79">
         <v>3</v>
       </c>
-      <c r="C23" s="81"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="80">
-        <v>2</v>
-      </c>
-      <c r="C24" s="81"/>
+      <c r="B24" s="79">
+        <v>3</v>
+      </c>
+      <c r="C24" s="80"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="80">
+      <c r="B25" s="79">
         <v>3</v>
       </c>
-      <c r="C25" s="81"/>
+      <c r="C25" s="80"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="80">
+      <c r="B26" s="79">
         <v>2</v>
       </c>
-      <c r="C26" s="81"/>
+      <c r="C26" s="80"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="80">
+      <c r="B27" s="79">
         <v>2</v>
       </c>
-      <c r="C27" s="81"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+      <c r="C27" s="80"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="79">
+        <v>1</v>
+      </c>
+      <c r="C28" s="80"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="78">
-        <f>SUM(B23:C27)</f>
-        <v>12</v>
-      </c>
-      <c r="C28" s="79"/>
-    </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="101">
+        <f>SUM(B23:C28)</f>
+        <v>14</v>
+      </c>
+      <c r="C29" s="102"/>
     </row>
     <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="87" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-    </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="69" t="s">
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B32" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="38" t="s">
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="38" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="40">
-        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
+        <v>3</v>
+      </c>
+      <c r="B33" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
       <c r="I33" s="40">
-        <v>10</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="40">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="40">
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="40">
         <v>15</v>
       </c>
-      <c r="J34" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J35" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J36" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="69" t="s">
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="95" t="s">
+      <c r="B37" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3">
+      <c r="C37" s="116"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="131" t="s">
+    <row r="38" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="129">
-        <v>5</v>
-      </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="J37" s="3">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="131" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="129">
-        <v>5</v>
-      </c>
-      <c r="C38" s="130"/>
+      <c r="B38" s="77">
+        <v>5</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="J38" s="3">
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="131" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="129">
-        <v>5</v>
-      </c>
-      <c r="C39" s="130"/>
+      <c r="A39" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="77">
+        <v>5</v>
+      </c>
+      <c r="C39" s="78"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
+      <c r="J39" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="131" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="129">
-        <v>5</v>
-      </c>
-      <c r="C40" s="130"/>
+      <c r="A40" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="77">
+        <v>5</v>
+      </c>
+      <c r="C40" s="78"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="129">
-        <v>5</v>
-      </c>
-      <c r="C41" s="130"/>
+      <c r="A41" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="77">
+        <v>5</v>
+      </c>
+      <c r="C41" s="78"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A42" s="131" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="129">
-        <v>5</v>
-      </c>
-      <c r="C42" s="130"/>
+    </row>
+    <row r="42" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="77">
+        <v>5</v>
+      </c>
+      <c r="C42" s="78"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="131" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="129">
-        <v>5</v>
-      </c>
-      <c r="C43" s="130"/>
+    <row r="43" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A43" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="77">
+        <v>5</v>
+      </c>
+      <c r="C43" s="78"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A44" s="131" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" s="129">
-        <v>5</v>
-      </c>
-      <c r="C44" s="130"/>
+    <row r="44" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="77">
+        <v>5</v>
+      </c>
+      <c r="C44" s="78"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="129">
-        <v>5</v>
-      </c>
-      <c r="C45" s="130"/>
+    <row r="45" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A45" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="77">
+        <v>5</v>
+      </c>
+      <c r="C45" s="78"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A46" s="131" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="129">
-        <v>5</v>
-      </c>
-      <c r="C46" s="130"/>
+    <row r="46" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="77">
+        <v>5</v>
+      </c>
+      <c r="C46" s="78"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="131" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="129">
-        <v>5</v>
-      </c>
-      <c r="C47" s="130"/>
+    <row r="47" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A47" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="77">
+        <v>5</v>
+      </c>
+      <c r="C47" s="78"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A48" s="131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="129">
-        <v>5</v>
-      </c>
-      <c r="C48" s="130"/>
+    <row r="48" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="77">
+        <v>5</v>
+      </c>
+      <c r="C48" s="78"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="A49" s="131" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="129">
-        <v>5</v>
-      </c>
-      <c r="C49" s="130"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A49" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="77">
+        <v>5</v>
+      </c>
+      <c r="C49" s="78"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="A50" s="131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="129">
-        <v>5</v>
-      </c>
-      <c r="C50" s="130"/>
+      <c r="A50" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="77">
+        <v>5</v>
+      </c>
+      <c r="C50" s="78"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A51" s="131" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="129">
-        <v>5</v>
-      </c>
-      <c r="C51" s="130"/>
+    <row r="51" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A51" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="77">
+        <v>5</v>
+      </c>
+      <c r="C51" s="78"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A52" s="131" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="129">
-        <v>5</v>
-      </c>
-      <c r="C52" s="130"/>
+      <c r="A52" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="77">
+        <v>5</v>
+      </c>
+      <c r="C52" s="78"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A53" s="131" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="129">
-        <v>5</v>
-      </c>
-      <c r="C53" s="130"/>
+      <c r="A53" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="77">
+        <v>5</v>
+      </c>
+      <c r="C53" s="78"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A54" s="131" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" s="129">
-        <v>5</v>
-      </c>
-      <c r="C54" s="130"/>
+      <c r="A54" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="77">
+        <v>5</v>
+      </c>
+      <c r="C54" s="78"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A55" s="131" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" s="129">
-        <v>5</v>
-      </c>
-      <c r="C55" s="130"/>
+      <c r="A55" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="77">
+        <v>5</v>
+      </c>
+      <c r="C55" s="78"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="131" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" s="129">
-        <v>5</v>
-      </c>
-      <c r="C56" s="130"/>
+    <row r="56" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A56" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="77">
+        <v>5</v>
+      </c>
+      <c r="C56" s="78"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A57" s="131" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" s="129">
-        <v>5</v>
-      </c>
-      <c r="C57" s="130"/>
+    <row r="57" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="77">
+        <v>5</v>
+      </c>
+      <c r="C57" s="78"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A58" s="131" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" s="129">
-        <v>5</v>
-      </c>
-      <c r="C58" s="130"/>
+      <c r="A58" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="77">
+        <v>5</v>
+      </c>
+      <c r="C58" s="78"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A59" s="131" t="s">
+      <c r="A59" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="77">
+        <v>5</v>
+      </c>
+      <c r="C59" s="78"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A60" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="129">
-        <v>5</v>
-      </c>
-      <c r="C59" s="130"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A60" s="131" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="129">
-        <v>5</v>
-      </c>
-      <c r="C60" s="130"/>
+      <c r="B60" s="77">
+        <v>5</v>
+      </c>
+      <c r="C60" s="78"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A61" s="131" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="129">
-        <v>5</v>
-      </c>
-      <c r="C61" s="130"/>
+      <c r="A61" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="77">
+        <v>5</v>
+      </c>
+      <c r="C61" s="78"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="131" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="129">
-        <v>5</v>
-      </c>
-      <c r="C62" s="130"/>
+    <row r="62" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A62" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="77">
+        <v>5</v>
+      </c>
+      <c r="C62" s="78"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A63" s="131" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="129">
-        <v>5</v>
-      </c>
-      <c r="C63" s="130"/>
+    <row r="63" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="77">
+        <v>5</v>
+      </c>
+      <c r="C63" s="78"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A64" s="131" t="s">
-        <v>154</v>
-      </c>
-      <c r="B64" s="129">
-        <v>5</v>
-      </c>
-      <c r="C64" s="130"/>
+      <c r="A64" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="77">
+        <v>5</v>
+      </c>
+      <c r="C64" s="78"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:21" ht="28" x14ac:dyDescent="0.15">
-      <c r="A65" s="131" t="s">
-        <v>155</v>
-      </c>
-      <c r="B65" s="129">
-        <v>5</v>
-      </c>
-      <c r="C65" s="130"/>
+      <c r="A65" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="77">
+        <v>5</v>
+      </c>
+      <c r="C65" s="78"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:21" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="B66" s="129">
-        <v>5</v>
-      </c>
-      <c r="C66" s="130"/>
+    <row r="66" spans="1:21" ht="28" x14ac:dyDescent="0.15">
+      <c r="A66" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="77">
+        <v>5</v>
+      </c>
+      <c r="C66" s="78"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:21" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="131" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" s="129">
-        <v>5</v>
-      </c>
-      <c r="C67" s="130"/>
+      <c r="A67" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="77">
+        <v>5</v>
+      </c>
+      <c r="C67" s="78"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A68" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" s="103">
-        <f>SUM(B37:B60)</f>
-        <v>120</v>
-      </c>
-      <c r="C68" s="104"/>
-      <c r="D68" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="68" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="77">
+        <v>5</v>
+      </c>
+      <c r="C68" s="78"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A69" s="9"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="112">
+        <f>SUM(B38:B68)</f>
+        <v>155</v>
+      </c>
+      <c r="C69" s="113"/>
+      <c r="D69" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="10"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="38" t="s">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A70" s="9"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="78">
-        <f>B28+B68</f>
-        <v>132</v>
-      </c>
-      <c r="C70" s="79"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-    </row>
-    <row r="72" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
-      <c r="I72" s="77"/>
+      <c r="B71" s="101">
+        <f>B29+B69</f>
+        <v>169</v>
+      </c>
+      <c r="C71" s="102"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
@@ -2677,18 +2668,18 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A73" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="75"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
+    <row r="73" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="87"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="104"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -2702,17 +2693,17 @@
       <c r="U73" s="9"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A74" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="75"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="75"/>
-      <c r="I74" s="75"/>
+      <c r="A74" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="107"/>
+      <c r="C74" s="107"/>
+      <c r="D74" s="107"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -2726,17 +2717,17 @@
       <c r="U74" s="9"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A75" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="75"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="75"/>
+      <c r="A75" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="107"/>
+      <c r="E75" s="107"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="107"/>
+      <c r="I75" s="107"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -2750,17 +2741,17 @@
       <c r="U75" s="9"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A76" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" s="77"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="77"/>
-      <c r="H76" s="77"/>
-      <c r="I76" s="77"/>
+      <c r="A76" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="107"/>
+      <c r="C76" s="107"/>
+      <c r="D76" s="107"/>
+      <c r="E76" s="107"/>
+      <c r="F76" s="107"/>
+      <c r="G76" s="107"/>
+      <c r="H76" s="107"/>
+      <c r="I76" s="107"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
@@ -2773,26 +2764,18 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
     </row>
-    <row r="77" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G77" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="I77" s="87"/>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A77" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="104"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="104"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
@@ -2805,27 +2788,26 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A78" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="75"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="40">
+    <row r="78" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="117"/>
+      <c r="D78" s="117"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G78" s="51">
-        <v>5</v>
-      </c>
-      <c r="H78" s="76">
-        <f>F78*G78</f>
+      <c r="G78" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I78" s="76"/>
+      <c r="H78" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="I78" s="121"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
@@ -2840,25 +2822,25 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="75"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
+        <v>25</v>
+      </c>
+      <c r="B79" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="107"/>
+      <c r="D79" s="107"/>
+      <c r="E79" s="107"/>
       <c r="F79" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" s="51">
         <v>5</v>
       </c>
-      <c r="H79" s="76">
-        <f t="shared" ref="H79:H90" si="0">F79*G79</f>
-        <v>5</v>
-      </c>
-      <c r="I79" s="76"/>
+      <c r="H79" s="109">
+        <f>F79*G79</f>
+        <v>10</v>
+      </c>
+      <c r="I79" s="109"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
@@ -2873,25 +2855,25 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="75"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="75"/>
+        <v>26</v>
+      </c>
+      <c r="B80" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="107"/>
+      <c r="D80" s="107"/>
+      <c r="E80" s="107"/>
       <c r="F80" s="40">
         <v>1</v>
       </c>
       <c r="G80" s="51">
-        <v>2</v>
-      </c>
-      <c r="H80" s="76">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I80" s="76"/>
+        <v>5</v>
+      </c>
+      <c r="H80" s="109">
+        <f t="shared" ref="H80:H91" si="0">F80*G80</f>
+        <v>5</v>
+      </c>
+      <c r="I80" s="109"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
@@ -2906,25 +2888,25 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A81" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="75"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="75"/>
+        <v>27</v>
+      </c>
+      <c r="B81" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="107"/>
+      <c r="D81" s="107"/>
+      <c r="E81" s="107"/>
       <c r="F81" s="40">
         <v>1</v>
       </c>
       <c r="G81" s="51">
-        <v>4</v>
-      </c>
-      <c r="H81" s="76">
-        <f>F81*G81</f>
-        <v>4</v>
-      </c>
-      <c r="I81" s="76"/>
+        <v>2</v>
+      </c>
+      <c r="H81" s="109">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I81" s="109"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
@@ -2939,28 +2921,28 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B82" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="75"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="75"/>
+        <v>28</v>
+      </c>
+      <c r="B82" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="107"/>
+      <c r="D82" s="107"/>
+      <c r="E82" s="107"/>
       <c r="F82" s="40">
         <v>1</v>
       </c>
       <c r="G82" s="51">
-        <v>0</v>
-      </c>
-      <c r="H82" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="76"/>
+        <v>4</v>
+      </c>
+      <c r="H82" s="109">
+        <f>F82*G82</f>
+        <v>4</v>
+      </c>
+      <c r="I82" s="109"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
-      <c r="M82" s="11"/>
+      <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
@@ -2972,28 +2954,28 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B83" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="75"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
+        <v>29</v>
+      </c>
+      <c r="B83" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="107"/>
+      <c r="D83" s="107"/>
+      <c r="E83" s="107"/>
       <c r="F83" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G83" s="51">
-        <v>5</v>
-      </c>
-      <c r="H83" s="76">
+        <v>0</v>
+      </c>
+      <c r="H83" s="109">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="I83" s="76"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="109"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
+      <c r="M83" s="11"/>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
@@ -3005,25 +2987,25 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B84" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="75"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="B84" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="107"/>
+      <c r="D84" s="107"/>
+      <c r="E84" s="107"/>
       <c r="F84" s="40">
         <v>0.5</v>
       </c>
       <c r="G84" s="51">
         <v>5</v>
       </c>
-      <c r="H84" s="76">
+      <c r="H84" s="109">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I84" s="76"/>
+      <c r="I84" s="109"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
@@ -3038,25 +3020,25 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B85" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="75"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
+        <v>31</v>
+      </c>
+      <c r="B85" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="107"/>
+      <c r="D85" s="107"/>
+      <c r="E85" s="107"/>
       <c r="F85" s="40">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G85" s="51">
         <v>5</v>
       </c>
-      <c r="H85" s="76">
+      <c r="H85" s="109">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I85" s="76"/>
+        <v>2.5</v>
+      </c>
+      <c r="I85" s="109"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
@@ -3071,25 +3053,25 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B86" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86" s="75"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
+        <v>32</v>
+      </c>
+      <c r="B86" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="107"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
       <c r="F86" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="51">
-        <v>3</v>
-      </c>
-      <c r="H86" s="76">
+        <v>5</v>
+      </c>
+      <c r="H86" s="109">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I86" s="76"/>
+        <v>10</v>
+      </c>
+      <c r="I86" s="109"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
@@ -3104,25 +3086,25 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="75"/>
-      <c r="D87" s="75"/>
-      <c r="E87" s="75"/>
+        <v>33</v>
+      </c>
+      <c r="B87" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="107"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
       <c r="F87" s="40">
         <v>1</v>
       </c>
       <c r="G87" s="51">
-        <v>4</v>
-      </c>
-      <c r="H87" s="76">
+        <v>3</v>
+      </c>
+      <c r="H87" s="109">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I87" s="76"/>
+        <v>3</v>
+      </c>
+      <c r="I87" s="109"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
@@ -3137,25 +3119,25 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B88" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" s="75"/>
-      <c r="D88" s="75"/>
-      <c r="E88" s="75"/>
+        <v>34</v>
+      </c>
+      <c r="B88" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="107"/>
+      <c r="D88" s="107"/>
+      <c r="E88" s="107"/>
       <c r="F88" s="40">
         <v>1</v>
       </c>
       <c r="G88" s="51">
-        <v>5</v>
-      </c>
-      <c r="H88" s="76">
+        <v>4</v>
+      </c>
+      <c r="H88" s="109">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I88" s="76"/>
+        <v>4</v>
+      </c>
+      <c r="I88" s="109"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
@@ -3170,25 +3152,25 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B89" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C89" s="75"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="B89" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="107"/>
+      <c r="D89" s="107"/>
+      <c r="E89" s="107"/>
       <c r="F89" s="40">
         <v>1</v>
       </c>
       <c r="G89" s="51">
-        <v>2</v>
-      </c>
-      <c r="H89" s="76">
+        <v>5</v>
+      </c>
+      <c r="H89" s="109">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I89" s="76"/>
+        <v>5</v>
+      </c>
+      <c r="I89" s="109"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
@@ -3203,25 +3185,25 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C90" s="75"/>
-      <c r="D90" s="75"/>
-      <c r="E90" s="75"/>
+        <v>36</v>
+      </c>
+      <c r="B90" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="107"/>
+      <c r="D90" s="107"/>
+      <c r="E90" s="107"/>
       <c r="F90" s="40">
         <v>1</v>
       </c>
       <c r="G90" s="51">
         <v>2</v>
       </c>
-      <c r="H90" s="76">
+      <c r="H90" s="109">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I90" s="76"/>
+      <c r="I90" s="109"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
@@ -3234,21 +3216,27 @@
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
     </row>
-    <row r="91" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
-      <c r="G91" s="109"/>
-      <c r="H91" s="78">
-        <f>0.6+(0.01*(SUM(H78:I90)))</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I91" s="79"/>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A91" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="107"/>
+      <c r="D91" s="107"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="40">
+        <v>1</v>
+      </c>
+      <c r="G91" s="51">
+        <v>2</v>
+      </c>
+      <c r="H91" s="109">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I91" s="109"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
@@ -3261,15 +3249,21 @@
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+    <row r="92" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="99"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="100"/>
+      <c r="H92" s="101">
+        <f>0.6+(0.01*(SUM(H79:I91)))</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I92" s="102"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
@@ -3282,18 +3276,15 @@
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
     </row>
-    <row r="93" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="B93" s="94"/>
-      <c r="C93" s="94"/>
-      <c r="D93" s="94"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="77"/>
-      <c r="H93" s="77"/>
-      <c r="I93" s="77"/>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
@@ -3306,18 +3297,18 @@
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A94" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94" s="75"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="75"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="75"/>
-      <c r="G94" s="75"/>
-      <c r="H94" s="75"/>
-      <c r="I94" s="75"/>
+    <row r="94" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" s="87"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="87"/>
+      <c r="E94" s="104"/>
+      <c r="F94" s="104"/>
+      <c r="G94" s="104"/>
+      <c r="H94" s="104"/>
+      <c r="I94" s="104"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
@@ -3331,17 +3322,17 @@
       <c r="U94" s="9"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A95" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B95" s="75"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="75"/>
-      <c r="G95" s="75"/>
-      <c r="H95" s="77"/>
-      <c r="I95" s="77"/>
+      <c r="A95" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="107"/>
+      <c r="C95" s="107"/>
+      <c r="D95" s="107"/>
+      <c r="E95" s="107"/>
+      <c r="F95" s="107"/>
+      <c r="G95" s="107"/>
+      <c r="H95" s="107"/>
+      <c r="I95" s="107"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
@@ -3355,17 +3346,17 @@
       <c r="U95" s="9"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A96" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96" s="75"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="75"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="77"/>
-      <c r="I96" s="77"/>
+      <c r="A96" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="107"/>
+      <c r="C96" s="107"/>
+      <c r="D96" s="107"/>
+      <c r="E96" s="107"/>
+      <c r="F96" s="107"/>
+      <c r="G96" s="107"/>
+      <c r="H96" s="104"/>
+      <c r="I96" s="104"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
@@ -3379,17 +3370,17 @@
       <c r="U96" s="9"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A97" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="B97" s="77"/>
-      <c r="C97" s="77"/>
-      <c r="D97" s="77"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
-      <c r="G97" s="77"/>
-      <c r="H97" s="77"/>
-      <c r="I97" s="77"/>
+      <c r="A97" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="107"/>
+      <c r="C97" s="107"/>
+      <c r="D97" s="107"/>
+      <c r="E97" s="107"/>
+      <c r="F97" s="107"/>
+      <c r="G97" s="107"/>
+      <c r="H97" s="104"/>
+      <c r="I97" s="104"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -3402,26 +3393,18 @@
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
     </row>
-    <row r="98" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="B98" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="75"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="75"/>
-      <c r="G98" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H98" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="38" t="s">
-        <v>55</v>
-      </c>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A98" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="104"/>
+      <c r="C98" s="104"/>
+      <c r="D98" s="104"/>
+      <c r="E98" s="104"/>
+      <c r="F98" s="104"/>
+      <c r="G98" s="104"/>
+      <c r="H98" s="104"/>
+      <c r="I98" s="104"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -3434,30 +3417,25 @@
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A99" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B99" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="75"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="H99" s="51">
-        <v>3</v>
-      </c>
-      <c r="I99" s="16">
-        <f>G99*H99</f>
-        <v>4.5</v>
-      </c>
-      <c r="J99" s="3">
-        <f t="shared" ref="J99:J104" si="1">IF(H99&lt;3,1,0)</f>
+    <row r="99" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="117" t="s">
         <v>0</v>
+      </c>
+      <c r="C99" s="107"/>
+      <c r="D99" s="107"/>
+      <c r="E99" s="107"/>
+      <c r="F99" s="107"/>
+      <c r="G99" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -3473,50 +3451,61 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B100" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" s="75"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="75"/>
+        <v>38</v>
+      </c>
+      <c r="B100" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="107"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="107"/>
+      <c r="F100" s="107"/>
       <c r="G100" s="40">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H100" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" s="16">
-        <f t="shared" ref="I100:I106" si="2">G100*H100</f>
-        <v>2</v>
+        <f>G100*H100</f>
+        <v>4.5</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J100:J105" si="1">IF(H100&lt;3,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" s="75"/>
-      <c r="D101" s="75"/>
-      <c r="E101" s="75"/>
-      <c r="F101" s="75"/>
+        <v>39</v>
+      </c>
+      <c r="B101" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="107"/>
+      <c r="D101" s="107"/>
+      <c r="E101" s="107"/>
+      <c r="F101" s="107"/>
       <c r="G101" s="40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H101" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I101" s="16">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" ref="I101:I107" si="2">G101*H101</f>
+        <v>2</v>
       </c>
       <c r="J101" s="3">
         <f t="shared" si="1"/>
@@ -3525,24 +3514,24 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B102" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C102" s="75"/>
-      <c r="D102" s="75"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="75"/>
+        <v>40</v>
+      </c>
+      <c r="B102" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" s="107"/>
+      <c r="D102" s="107"/>
+      <c r="E102" s="107"/>
+      <c r="F102" s="107"/>
       <c r="G102" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H102" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I102" s="16">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="J102" s="3">
         <f t="shared" si="1"/>
@@ -3551,24 +3540,24 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B103" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="75"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
+        <v>41</v>
+      </c>
+      <c r="B103" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="107"/>
       <c r="G103" s="40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H103" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103" s="16">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="J103" s="3">
         <f t="shared" si="1"/>
@@ -3577,24 +3566,24 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B104" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" s="75"/>
-      <c r="D104" s="75"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="75"/>
+        <v>42</v>
+      </c>
+      <c r="B104" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="107"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
+      <c r="F104" s="107"/>
       <c r="G104" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" s="51">
         <v>4</v>
       </c>
       <c r="I104" s="16">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J104" s="3">
         <f t="shared" si="1"/>
@@ -3603,615 +3592,642 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B105" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="75"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="75"/>
-      <c r="F105" s="75"/>
+        <v>43</v>
+      </c>
+      <c r="B105" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="107"/>
+      <c r="D105" s="107"/>
+      <c r="E105" s="107"/>
+      <c r="F105" s="107"/>
       <c r="G105" s="40">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H105" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I105" s="16">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="J105" s="3">
-        <f>IF(H105&gt;3,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B106" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C106" s="75"/>
-      <c r="D106" s="75"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="75"/>
+        <v>44</v>
+      </c>
+      <c r="B106" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="107"/>
+      <c r="D106" s="107"/>
+      <c r="E106" s="107"/>
+      <c r="F106" s="107"/>
       <c r="G106" s="40">
         <v>-1</v>
       </c>
       <c r="H106" s="51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I106" s="16">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="J106" s="3">
         <f>IF(H106&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A107" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="107"/>
+      <c r="D107" s="107"/>
+      <c r="E107" s="107"/>
+      <c r="F107" s="107"/>
+      <c r="G107" s="40">
+        <v>-1</v>
+      </c>
+      <c r="H107" s="51">
+        <v>2</v>
+      </c>
+      <c r="I107" s="16">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="J107" s="3">
+        <f>IF(H107&gt;3,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="91" t="s">
+    <row r="108" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="B107" s="92"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="92"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="92"/>
-      <c r="G107" s="92"/>
-      <c r="H107" s="93"/>
-      <c r="I107" s="18">
-        <f>1.4+(-0.03*(SUM(I99:I106)))</f>
+      <c r="B108" s="131"/>
+      <c r="C108" s="131"/>
+      <c r="D108" s="131"/>
+      <c r="E108" s="131"/>
+      <c r="F108" s="131"/>
+      <c r="G108" s="131"/>
+      <c r="H108" s="132"/>
+      <c r="I108" s="18">
+        <f>1.4+(-0.03*(SUM(I100:I107)))</f>
         <v>0.85999999999999988</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="42" t="s">
+    <row r="110" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B109" s="72">
-        <f>(B70*H91*I107)</f>
-        <v>127.14239999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
-    </row>
-    <row r="111" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A111" s="85" t="s">
+      <c r="B110" s="72">
+        <f>(B71*H92*I108)</f>
+        <v>162.7808</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="12"/>
+      <c r="B111" s="13"/>
+    </row>
+    <row r="112" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A112" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="B111" s="86"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="86"/>
-      <c r="E111" s="86"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="86"/>
-      <c r="I111" s="86"/>
-    </row>
-    <row r="113" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A113" s="102" t="s">
+      <c r="B112" s="127"/>
+      <c r="C112" s="127"/>
+      <c r="D112" s="127"/>
+      <c r="E112" s="127"/>
+      <c r="F112" s="127"/>
+      <c r="G112" s="127"/>
+      <c r="H112" s="127"/>
+      <c r="I112" s="127"/>
+    </row>
+    <row r="114" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A114" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="102"/>
-      <c r="C113" s="102"/>
-      <c r="D113" s="102"/>
-      <c r="E113" s="102"/>
-      <c r="F113" s="102"/>
-      <c r="G113" s="102"/>
-      <c r="H113" s="102"/>
-    </row>
-    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="69" t="s">
+      <c r="B114" s="111"/>
+      <c r="C114" s="111"/>
+      <c r="D114" s="111"/>
+      <c r="E114" s="111"/>
+      <c r="F114" s="111"/>
+      <c r="G114" s="111"/>
+      <c r="H114" s="111"/>
+    </row>
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B114" s="41" t="s">
+      <c r="B115" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C114" s="43" t="s">
+      <c r="C115" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D114" s="41" t="s">
+      <c r="D115" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E114" s="41" t="s">
+      <c r="E115" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F114" s="41" t="s">
+      <c r="F115" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G114" s="41" t="s">
+      <c r="G115" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="H114" s="65" t="s">
+      <c r="H115" s="65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="42"/>
-      <c r="B115" s="73">
-        <f>B109</f>
-        <v>127.14239999999998</v>
-      </c>
-      <c r="C115" s="22">
+    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="42"/>
+      <c r="B116" s="73">
+        <f>B110</f>
+        <v>162.7808</v>
+      </c>
+      <c r="C116" s="22">
         <v>20</v>
       </c>
-      <c r="D115" s="21">
-        <f>B115*C115</f>
-        <v>2542.8479999999995</v>
-      </c>
-      <c r="E115" s="21">
-        <f>D115/8</f>
-        <v>317.85599999999994</v>
-      </c>
-      <c r="F115" s="23">
-        <f>E115/20</f>
-        <v>15.892799999999998</v>
-      </c>
-      <c r="G115" s="48">
-        <v>15</v>
-      </c>
-      <c r="H115" s="24">
-        <f>G115*D115</f>
-        <v>38142.719999999994</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="49">
-        <v>3</v>
-      </c>
-      <c r="B116" s="45"/>
-      <c r="C116" s="46"/>
       <c r="D116" s="21">
-        <f>D115/A116</f>
-        <v>847.61599999999987</v>
+        <f>B116*C116</f>
+        <v>3255.616</v>
       </c>
       <c r="E116" s="21">
         <f>D116/8</f>
-        <v>105.95199999999998</v>
+        <v>406.952</v>
       </c>
       <c r="F116" s="23">
         <f>E116/20</f>
-        <v>5.2975999999999992</v>
-      </c>
-      <c r="G116" s="44"/>
-      <c r="H116" s="40"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-    </row>
-    <row r="119" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A120" s="122" t="s">
+        <v>20.3476</v>
+      </c>
+      <c r="G116" s="48">
+        <v>15</v>
+      </c>
+      <c r="H116" s="24">
+        <f>G116*D116</f>
+        <v>48834.239999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="49">
+        <v>3</v>
+      </c>
+      <c r="B117" s="45"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="21">
+        <f>D116/A117</f>
+        <v>1085.2053333333333</v>
+      </c>
+      <c r="E117" s="21">
+        <f>D117/8</f>
+        <v>135.65066666666667</v>
+      </c>
+      <c r="F117" s="23">
+        <f>E117/20</f>
+        <v>6.7825333333333333</v>
+      </c>
+      <c r="G117" s="44"/>
+      <c r="H117" s="40"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="120" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A121" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B120" s="123"/>
-      <c r="C120" s="123"/>
-      <c r="D120" s="123"/>
-      <c r="E120" s="123"/>
-      <c r="F120" s="123"/>
-      <c r="G120" s="123"/>
-      <c r="H120" s="123"/>
-      <c r="I120" s="124"/>
-    </row>
-    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="125" t="s">
+      <c r="B121" s="92"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="92"/>
+      <c r="F121" s="92"/>
+      <c r="G121" s="92"/>
+      <c r="H121" s="92"/>
+      <c r="I121" s="93"/>
+    </row>
+    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B121" s="94"/>
-      <c r="C121" s="94"/>
-      <c r="D121" s="94"/>
-      <c r="E121" s="94"/>
-      <c r="F121" s="94"/>
-      <c r="G121" s="94"/>
-      <c r="H121" s="94"/>
-      <c r="I121" s="119"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122" s="111" t="s">
+      <c r="B122" s="87"/>
+      <c r="C122" s="87"/>
+      <c r="D122" s="87"/>
+      <c r="E122" s="87"/>
+      <c r="F122" s="87"/>
+      <c r="G122" s="87"/>
+      <c r="H122" s="87"/>
+      <c r="I122" s="88"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="B122" s="75"/>
-      <c r="C122" s="75"/>
-      <c r="D122" s="75"/>
-      <c r="E122" s="75"/>
-      <c r="F122" s="75"/>
-      <c r="G122" s="75"/>
-      <c r="H122" s="75"/>
-      <c r="I122" s="112"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A123" s="111" t="s">
+      <c r="B123" s="107"/>
+      <c r="C123" s="107"/>
+      <c r="D123" s="107"/>
+      <c r="E123" s="107"/>
+      <c r="F123" s="107"/>
+      <c r="G123" s="107"/>
+      <c r="H123" s="107"/>
+      <c r="I123" s="108"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="B123" s="75"/>
-      <c r="C123" s="75"/>
-      <c r="D123" s="75"/>
-      <c r="E123" s="75"/>
-      <c r="F123" s="75"/>
-      <c r="G123" s="75"/>
-      <c r="H123" s="75"/>
-      <c r="I123" s="112"/>
-    </row>
-    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="126"/>
-      <c r="B124" s="127"/>
-      <c r="C124" s="127"/>
-      <c r="D124" s="127"/>
-      <c r="E124" s="127"/>
-      <c r="F124" s="128"/>
-      <c r="G124" s="113" t="s">
+      <c r="B124" s="107"/>
+      <c r="C124" s="107"/>
+      <c r="D124" s="107"/>
+      <c r="E124" s="107"/>
+      <c r="F124" s="107"/>
+      <c r="G124" s="107"/>
+      <c r="H124" s="107"/>
+      <c r="I124" s="108"/>
+    </row>
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="95"/>
+      <c r="B125" s="96"/>
+      <c r="C125" s="96"/>
+      <c r="D125" s="96"/>
+      <c r="E125" s="96"/>
+      <c r="F125" s="97"/>
+      <c r="G125" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="H124" s="114"/>
-      <c r="I124" s="19">
-        <f>SUM(J99:J104)</f>
+      <c r="H125" s="85"/>
+      <c r="I125" s="19">
+        <f>SUM(J100:J105)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="126"/>
-      <c r="B125" s="127"/>
-      <c r="C125" s="127"/>
-      <c r="D125" s="127"/>
-      <c r="E125" s="127"/>
-      <c r="F125" s="128"/>
-      <c r="G125" s="113" t="s">
+    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="95"/>
+      <c r="B126" s="96"/>
+      <c r="C126" s="96"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="96"/>
+      <c r="F126" s="97"/>
+      <c r="G126" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="H125" s="114"/>
-      <c r="I125" s="19">
-        <f>SUM(J105:J106)</f>
+      <c r="H126" s="85"/>
+      <c r="I126" s="19">
+        <f>SUM(J106:J107)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="126"/>
-      <c r="B126" s="127"/>
-      <c r="C126" s="127"/>
-      <c r="D126" s="127"/>
-      <c r="E126" s="127"/>
-      <c r="F126" s="128"/>
-      <c r="G126" s="113" t="s">
+    <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="95"/>
+      <c r="B127" s="96"/>
+      <c r="C127" s="96"/>
+      <c r="D127" s="96"/>
+      <c r="E127" s="96"/>
+      <c r="F127" s="97"/>
+      <c r="G127" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="H126" s="114"/>
-      <c r="I126" s="19">
-        <f>I124+I125</f>
+      <c r="H127" s="85"/>
+      <c r="I127" s="19">
+        <f>I125+I126</f>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="120" t="s">
+    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="B127" s="121"/>
-      <c r="C127" s="121"/>
-      <c r="D127" s="121"/>
-      <c r="E127" s="121"/>
-      <c r="F127" s="121"/>
-      <c r="G127" s="121"/>
-      <c r="H127" s="121"/>
-      <c r="I127" s="20">
-        <f>C135</f>
+      <c r="B128" s="90"/>
+      <c r="C128" s="90"/>
+      <c r="D128" s="90"/>
+      <c r="E128" s="90"/>
+      <c r="F128" s="90"/>
+      <c r="G128" s="90"/>
+      <c r="H128" s="90"/>
+      <c r="I128" s="20">
+        <f>C136</f>
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="118" t="s">
+    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="B128" s="94"/>
-      <c r="C128" s="94"/>
-      <c r="D128" s="94"/>
-      <c r="E128" s="94"/>
-      <c r="F128" s="94"/>
-      <c r="G128" s="94"/>
-      <c r="H128" s="94"/>
-      <c r="I128" s="119"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="105" t="s">
+      <c r="B129" s="87"/>
+      <c r="C129" s="87"/>
+      <c r="D129" s="87"/>
+      <c r="E129" s="87"/>
+      <c r="F129" s="87"/>
+      <c r="G129" s="87"/>
+      <c r="H129" s="87"/>
+      <c r="I129" s="88"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B129" s="77"/>
-      <c r="C129" s="77"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="77"/>
-      <c r="F129" s="77"/>
-      <c r="G129" s="77"/>
-      <c r="H129" s="77"/>
-      <c r="I129" s="106"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130" s="110" t="s">
+      <c r="B130" s="104"/>
+      <c r="C130" s="104"/>
+      <c r="D130" s="104"/>
+      <c r="E130" s="104"/>
+      <c r="F130" s="104"/>
+      <c r="G130" s="104"/>
+      <c r="H130" s="104"/>
+      <c r="I130" s="105"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A131" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="B130" s="77"/>
-      <c r="C130" s="77"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="77"/>
-      <c r="G130" s="77"/>
-      <c r="H130" s="77"/>
-      <c r="I130" s="106"/>
-    </row>
-    <row r="131" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="115" t="s">
+      <c r="B131" s="104"/>
+      <c r="C131" s="104"/>
+      <c r="D131" s="104"/>
+      <c r="E131" s="104"/>
+      <c r="F131" s="104"/>
+      <c r="G131" s="104"/>
+      <c r="H131" s="104"/>
+      <c r="I131" s="105"/>
+    </row>
+    <row r="132" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="B131" s="116"/>
-      <c r="C131" s="116"/>
-      <c r="D131" s="116"/>
-      <c r="E131" s="116"/>
-      <c r="F131" s="116"/>
-      <c r="G131" s="116"/>
-      <c r="H131" s="116"/>
-      <c r="I131" s="117"/>
-    </row>
-    <row r="133" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A133" s="102" t="s">
+      <c r="B132" s="82"/>
+      <c r="C132" s="82"/>
+      <c r="D132" s="82"/>
+      <c r="E132" s="82"/>
+      <c r="F132" s="82"/>
+      <c r="G132" s="82"/>
+      <c r="H132" s="82"/>
+      <c r="I132" s="83"/>
+    </row>
+    <row r="134" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A134" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="B133" s="102"/>
-      <c r="C133" s="102"/>
-      <c r="D133" s="102"/>
-      <c r="E133" s="102"/>
-      <c r="F133" s="102"/>
-      <c r="G133" s="102"/>
-      <c r="H133" s="102"/>
-    </row>
-    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="64" t="s">
+      <c r="B134" s="111"/>
+      <c r="C134" s="111"/>
+      <c r="D134" s="111"/>
+      <c r="E134" s="111"/>
+      <c r="F134" s="111"/>
+      <c r="G134" s="111"/>
+      <c r="H134" s="111"/>
+    </row>
+    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B134" s="41" t="s">
+      <c r="B135" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C134" s="43" t="s">
+      <c r="C135" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D134" s="41" t="s">
+      <c r="D135" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E134" s="41" t="s">
+      <c r="E135" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F134" s="41" t="s">
+      <c r="F135" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G134" s="41" t="s">
+      <c r="G135" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="H134" s="65" t="s">
+      <c r="H135" s="65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="42"/>
-      <c r="B135" s="73">
-        <f>B109</f>
-        <v>127.14239999999998</v>
-      </c>
-      <c r="C135" s="22">
-        <f>IF(I126&lt;=2,20,IF(I126&lt;5,28,"Reduzir a complexidade"))</f>
+    <row r="136" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="42"/>
+      <c r="B136" s="73">
+        <f>B110</f>
+        <v>162.7808</v>
+      </c>
+      <c r="C136" s="22">
+        <f>IF(I127&lt;=2,20,IF(I127&lt;5,28,"Reduzir a complexidade"))</f>
         <v>20</v>
       </c>
-      <c r="D135" s="22">
-        <f>IF(I126&lt;=2,20*B135,IF(I126&lt;5,28*B135,"-"))</f>
-        <v>2542.8479999999995</v>
-      </c>
-      <c r="E135" s="22">
-        <f>IF(I126&lt;=2,20*B135/8,IF(I126&lt;5,28*B135/8,"-"))</f>
-        <v>317.85599999999994</v>
-      </c>
-      <c r="F135" s="25">
-        <f>IF(I126&lt;=2,20*B135/20/8,IF(I126&lt;5,28*B135/20/8,"-"))</f>
-        <v>15.892799999999998</v>
-      </c>
-      <c r="G135" s="27">
-        <f>G115</f>
+      <c r="D136" s="22">
+        <f>IF(I127&lt;=2,20*B136,IF(I127&lt;5,28*B136,"-"))</f>
+        <v>3255.616</v>
+      </c>
+      <c r="E136" s="22">
+        <f>IF(I127&lt;=2,20*B136/8,IF(I127&lt;5,28*B136/8,"-"))</f>
+        <v>406.952</v>
+      </c>
+      <c r="F136" s="25">
+        <f>IF(I127&lt;=2,20*B136/20/8,IF(I127&lt;5,28*B136/20/8,"-"))</f>
+        <v>20.3476</v>
+      </c>
+      <c r="G136" s="27">
+        <f>G116</f>
         <v>15</v>
       </c>
-      <c r="H135" s="26">
-        <f>IF(I126&lt;=2,20*B135*G135,IF(I126&lt;5,28*B135*G135,"-"))</f>
-        <v>38142.719999999994</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="67">
-        <f>A116</f>
+      <c r="H136" s="26">
+        <f>IF(I127&lt;=2,20*B136*G136,IF(I127&lt;5,28*B136*G136,"-"))</f>
+        <v>48834.239999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="67">
+        <f>A117</f>
         <v>3</v>
       </c>
-      <c r="B136" s="45"/>
-      <c r="C136" s="46"/>
-      <c r="D136" s="22">
-        <f>IF(I126&lt;=2,20*B135/A136,IF(I126&lt;5,28*B135/A136,"-"))</f>
-        <v>847.61599999999987</v>
-      </c>
-      <c r="E136" s="22">
-        <f>IF(I126&lt;=2,20*B135/A136/8,IF(I126&lt;5,28*B135/A136/8,"-"))</f>
-        <v>105.95199999999998</v>
-      </c>
-      <c r="F136" s="25">
-        <f>IF(I126&lt;=2,20*B135/A136/20/8,IF(I126&lt;5,28*B135/A136/20/8,"-"))</f>
-        <v>5.2975999999999992</v>
-      </c>
-      <c r="G136" s="44"/>
-      <c r="H136" s="40"/>
-    </row>
-    <row r="140" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+      <c r="B137" s="45"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="22">
+        <f>IF(I127&lt;=2,20*B136/A137,IF(I127&lt;5,28*B136/A137,"-"))</f>
+        <v>1085.2053333333333</v>
+      </c>
+      <c r="E137" s="22">
+        <f>IF(I127&lt;=2,20*B136/A137/8,IF(I127&lt;5,28*B136/A137/8,"-"))</f>
+        <v>135.65066666666667</v>
+      </c>
+      <c r="F137" s="25">
+        <f>IF(I127&lt;=2,20*B136/A137/20/8,IF(I127&lt;5,28*B136/A137/20/8,"-"))</f>
+        <v>6.7825333333333333</v>
+      </c>
+      <c r="G137" s="44"/>
+      <c r="H137" s="40"/>
+    </row>
+    <row r="141" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="47"/>
-      <c r="B141" s="1" t="s">
+    <row r="142" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="47"/>
+      <c r="B142" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="50"/>
-      <c r="B142" s="1" t="s">
+    <row r="143" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="50"/>
+      <c r="B143" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="17"/>
-      <c r="B143" s="53" t="s">
+    <row r="144" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="17"/>
+      <c r="B144" s="53" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B62:C62"/>
+  <mergeCells count="122">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="A94:I94"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A134:H134"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A131:I131"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A124:I124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="A129:I129"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A131:I131"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="A128:I128"/>
-    <mergeCell ref="A127:H127"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A130:I130"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H86:I86"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A113:H113"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A129:I129"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="A96:I96"/>
-    <mergeCell ref="A97:I97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A95:I95"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A73:I73"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A75:I75"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A111:I111"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="A107:H107"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="A93:I93"/>
-    <mergeCell ref="A94:I94"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F68:F69" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F69:F70" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"5,10,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23:B27" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23:B28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$J$18:$J$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37:C39 C41 B37:B67 C48:C50 C52:C53 C59:C60" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$I$32:$I$34</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38:C40 C60:C61 C53:C54 C49:C51 B38:B68 C42" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>$I$33:$I$35</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G78:G90 H99:H106" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G79:G91 H100:H107" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4219,7 +4235,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <cellWatches>
-    <cellWatch r="B37"/>
+    <cellWatch r="B38"/>
   </cellWatches>
 </worksheet>
 </file>
--- a/docs/projeto-final/pfc/apendices/APÊNDICE D - ESTIMATIVA DE TEMPO POR PONTOS DE CASOS DE USO/ESTIMATIVA POR CASOS DE USO.xlsx
+++ b/docs/projeto-final/pfc/apendices/APÊNDICE D - ESTIMATIVA DE TEMPO POR PONTOS DE CASOS DE USO/ESTIMATIVA POR CASOS DE USO.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateusjbarbosa/Documents/Desenvolvimento/Repos/fai.etanois.docs/docs/projeto-final/pfc/apendices/APÊNDICE D - ESTIMATIVA DE TEMPO POR PONTOS DE CASOS DE USO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F54D92F-274D-7742-AF94-40ADFFE4F9C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EFC7BA-1A4E-C54E-BD55-35A748103E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCU-Fase 2" sheetId="2" r:id="rId1"/>
     <sheet name="PCU - Fase 3" sheetId="3" r:id="rId2"/>
+    <sheet name="PCU - Fase 4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="159">
   <si>
     <t>Estimativa de Pontos de Casos de Uso (PCU)</t>
   </si>
@@ -1259,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1514,75 +1515,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1591,54 +1533,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1667,6 +1580,106 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2881,17 +2894,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="149"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
@@ -2932,11 +2945,11 @@
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -3260,17 +3273,17 @@
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3"/>
@@ -3288,15 +3301,15 @@
       <c r="A17" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
       <c r="I17" s="42" t="s">
         <v>18</v>
       </c>
@@ -3317,15 +3330,15 @@
       <c r="A18" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="44">
         <v>1</v>
       </c>
@@ -3346,15 +3359,15 @@
       <c r="A19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
       <c r="I19" s="44">
         <v>2</v>
       </c>
@@ -3377,15 +3390,15 @@
       <c r="A20" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
       <c r="I20" s="44">
         <v>3</v>
       </c>
@@ -3433,10 +3446,10 @@
       <c r="A22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="134"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3460,10 +3473,10 @@
       <c r="A23" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="124">
+      <c r="B23" s="112">
         <v>3</v>
       </c>
-      <c r="C23" s="125"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="52"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -3487,10 +3500,10 @@
       <c r="A24" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="124">
+      <c r="B24" s="112">
         <v>3</v>
       </c>
-      <c r="C24" s="125"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="52"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3514,10 +3527,10 @@
       <c r="A25" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="124">
+      <c r="B25" s="112">
         <v>3</v>
       </c>
-      <c r="C25" s="125"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -3541,10 +3554,10 @@
       <c r="A26" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="124">
+      <c r="B26" s="112">
         <v>2</v>
       </c>
-      <c r="C26" s="125"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3568,10 +3581,10 @@
       <c r="A27" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="124">
+      <c r="B27" s="112">
         <v>2</v>
       </c>
-      <c r="C27" s="125"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3595,10 +3608,10 @@
       <c r="A28" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="124">
+      <c r="B28" s="112">
         <v>1</v>
       </c>
-      <c r="C28" s="125"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3622,11 +3635,11 @@
       <c r="A29" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="114">
+      <c r="B29" s="159">
         <f>SUM(B23:C28)</f>
         <v>14</v>
       </c>
-      <c r="C29" s="115"/>
+      <c r="C29" s="160"/>
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3670,17 +3683,17 @@
       <c r="U30" s="3"/>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="3"/>
@@ -3698,15 +3711,15 @@
       <c r="A32" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
       <c r="I32" s="42" t="s">
         <v>18</v>
       </c>
@@ -3727,15 +3740,15 @@
       <c r="A33" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
       <c r="I33" s="44">
         <v>5</v>
       </c>
@@ -3756,15 +3769,15 @@
       <c r="A34" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
       <c r="I34" s="44">
         <v>10</v>
       </c>
@@ -3787,15 +3800,15 @@
       <c r="A35" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
       <c r="I35" s="44">
         <v>15</v>
       </c>
@@ -3843,10 +3856,10 @@
       <c r="A37" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="133" t="s">
+      <c r="B37" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="134"/>
+      <c r="C37" s="144"/>
       <c r="D37" s="58"/>
       <c r="E37" s="59"/>
       <c r="F37" s="3"/>
@@ -3872,10 +3885,10 @@
       <c r="A38" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="131">
+      <c r="B38" s="110">
         <v>5</v>
       </c>
-      <c r="C38" s="132"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="52"/>
       <c r="E38" s="3"/>
       <c r="F38" s="60"/>
@@ -3901,10 +3914,10 @@
       <c r="A39" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="131">
+      <c r="B39" s="110">
         <v>5</v>
       </c>
-      <c r="C39" s="132"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="60"/>
@@ -3930,10 +3943,10 @@
       <c r="A40" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="131">
+      <c r="B40" s="110">
         <v>5</v>
       </c>
-      <c r="C40" s="132"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="60"/>
@@ -3957,10 +3970,10 @@
       <c r="A41" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="131">
+      <c r="B41" s="110">
         <v>5</v>
       </c>
-      <c r="C41" s="132"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
       <c r="F41" s="60"/>
@@ -3984,10 +3997,10 @@
       <c r="A42" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="131">
+      <c r="B42" s="110">
         <v>5</v>
       </c>
-      <c r="C42" s="132"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
       <c r="F42" s="60"/>
@@ -4011,10 +4024,10 @@
       <c r="A43" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="131">
+      <c r="B43" s="110">
         <v>5</v>
       </c>
-      <c r="C43" s="132"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
       <c r="F43" s="60"/>
@@ -4038,10 +4051,10 @@
       <c r="A44" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="131">
+      <c r="B44" s="110">
         <v>5</v>
       </c>
-      <c r="C44" s="132"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
       <c r="F44" s="60"/>
@@ -4065,10 +4078,10 @@
       <c r="A45" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="131">
+      <c r="B45" s="110">
         <v>5</v>
       </c>
-      <c r="C45" s="132"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3"/>
       <c r="F45" s="60"/>
@@ -4092,10 +4105,10 @@
       <c r="A46" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="131">
+      <c r="B46" s="110">
         <v>5</v>
       </c>
-      <c r="C46" s="132"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="60"/>
@@ -4119,10 +4132,10 @@
       <c r="A47" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="131">
+      <c r="B47" s="110">
         <v>5</v>
       </c>
-      <c r="C47" s="132"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3"/>
       <c r="F47" s="60"/>
@@ -4146,10 +4159,10 @@
       <c r="A48" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="131">
+      <c r="B48" s="110">
         <v>5</v>
       </c>
-      <c r="C48" s="132"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
       <c r="F48" s="60"/>
@@ -4173,10 +4186,10 @@
       <c r="A49" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="131">
+      <c r="B49" s="110">
         <v>5</v>
       </c>
-      <c r="C49" s="132"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
       <c r="F49" s="60"/>
@@ -4200,10 +4213,10 @@
       <c r="A50" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="131">
+      <c r="B50" s="110">
         <v>5</v>
       </c>
-      <c r="C50" s="132"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
       <c r="F50" s="60"/>
@@ -4227,10 +4240,10 @@
       <c r="A51" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="131">
+      <c r="B51" s="110">
         <v>5</v>
       </c>
-      <c r="C51" s="132"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
       <c r="F51" s="60"/>
@@ -4254,10 +4267,10 @@
       <c r="A52" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="131">
+      <c r="B52" s="110">
         <v>5</v>
       </c>
-      <c r="C52" s="132"/>
+      <c r="C52" s="111"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
       <c r="F52" s="60"/>
@@ -4281,10 +4294,10 @@
       <c r="A53" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="131">
+      <c r="B53" s="110">
         <v>5</v>
       </c>
-      <c r="C53" s="132"/>
+      <c r="C53" s="111"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
       <c r="F53" s="60"/>
@@ -4308,10 +4321,10 @@
       <c r="A54" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="131">
+      <c r="B54" s="110">
         <v>5</v>
       </c>
-      <c r="C54" s="132"/>
+      <c r="C54" s="111"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
       <c r="F54" s="60"/>
@@ -4335,10 +4348,10 @@
       <c r="A55" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="131">
+      <c r="B55" s="110">
         <v>5</v>
       </c>
-      <c r="C55" s="132"/>
+      <c r="C55" s="111"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
       <c r="F55" s="60"/>
@@ -4362,10 +4375,10 @@
       <c r="A56" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="131">
+      <c r="B56" s="110">
         <v>5</v>
       </c>
-      <c r="C56" s="132"/>
+      <c r="C56" s="111"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
       <c r="F56" s="60"/>
@@ -4389,10 +4402,10 @@
       <c r="A57" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="131">
+      <c r="B57" s="110">
         <v>5</v>
       </c>
-      <c r="C57" s="132"/>
+      <c r="C57" s="111"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
       <c r="F57" s="60"/>
@@ -4416,10 +4429,10 @@
       <c r="A58" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="131">
+      <c r="B58" s="110">
         <v>5</v>
       </c>
-      <c r="C58" s="132"/>
+      <c r="C58" s="111"/>
       <c r="D58" s="2"/>
       <c r="E58" s="3"/>
       <c r="F58" s="60"/>
@@ -4443,10 +4456,10 @@
       <c r="A59" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="131">
+      <c r="B59" s="110">
         <v>5</v>
       </c>
-      <c r="C59" s="132"/>
+      <c r="C59" s="111"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
       <c r="F59" s="60"/>
@@ -4470,10 +4483,10 @@
       <c r="A60" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="131">
+      <c r="B60" s="110">
         <v>5</v>
       </c>
-      <c r="C60" s="132"/>
+      <c r="C60" s="111"/>
       <c r="D60" s="52"/>
       <c r="E60" s="60"/>
       <c r="F60" s="3"/>
@@ -4497,10 +4510,10 @@
       <c r="A61" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="131">
+      <c r="B61" s="110">
         <v>5</v>
       </c>
-      <c r="C61" s="132"/>
+      <c r="C61" s="111"/>
       <c r="D61" s="52"/>
       <c r="E61" s="60"/>
       <c r="F61" s="3"/>
@@ -4524,10 +4537,10 @@
       <c r="A62" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="131">
+      <c r="B62" s="110">
         <v>5</v>
       </c>
-      <c r="C62" s="132"/>
+      <c r="C62" s="111"/>
       <c r="D62" s="52"/>
       <c r="E62" s="60"/>
       <c r="F62" s="3"/>
@@ -4551,10 +4564,10 @@
       <c r="A63" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="131">
+      <c r="B63" s="110">
         <v>5</v>
       </c>
-      <c r="C63" s="132"/>
+      <c r="C63" s="111"/>
       <c r="D63" s="52"/>
       <c r="E63" s="60"/>
       <c r="F63" s="3"/>
@@ -4578,10 +4591,10 @@
       <c r="A64" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="131">
+      <c r="B64" s="110">
         <v>5</v>
       </c>
-      <c r="C64" s="132"/>
+      <c r="C64" s="111"/>
       <c r="D64" s="52"/>
       <c r="E64" s="60"/>
       <c r="F64" s="3"/>
@@ -4605,10 +4618,10 @@
       <c r="A65" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="131">
+      <c r="B65" s="110">
         <v>5</v>
       </c>
-      <c r="C65" s="132"/>
+      <c r="C65" s="111"/>
       <c r="D65" s="52"/>
       <c r="E65" s="60"/>
       <c r="F65" s="3"/>
@@ -4632,10 +4645,10 @@
       <c r="A66" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="131">
+      <c r="B66" s="110">
         <v>5</v>
       </c>
-      <c r="C66" s="132"/>
+      <c r="C66" s="111"/>
       <c r="D66" s="52"/>
       <c r="E66" s="60"/>
       <c r="F66" s="3"/>
@@ -4659,10 +4672,10 @@
       <c r="A67" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="131">
+      <c r="B67" s="110">
         <v>5</v>
       </c>
-      <c r="C67" s="132"/>
+      <c r="C67" s="111"/>
       <c r="D67" s="52"/>
       <c r="E67" s="60"/>
       <c r="F67" s="3"/>
@@ -4686,10 +4699,10 @@
       <c r="A68" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="131">
+      <c r="B68" s="110">
         <v>5</v>
       </c>
-      <c r="C68" s="132"/>
+      <c r="C68" s="111"/>
       <c r="D68" s="52"/>
       <c r="E68" s="60"/>
       <c r="F68" s="3"/>
@@ -4713,11 +4726,11 @@
       <c r="A69" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="139">
+      <c r="B69" s="141">
         <f>SUM(B38:B68)</f>
         <v>155</v>
       </c>
-      <c r="C69" s="140"/>
+      <c r="C69" s="142"/>
       <c r="D69" s="62" t="s">
         <v>73</v>
       </c>
@@ -4766,11 +4779,11 @@
       <c r="A71" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="114">
+      <c r="B71" s="159">
         <f>B29+B69</f>
         <v>169</v>
       </c>
-      <c r="C71" s="115"/>
+      <c r="C71" s="160"/>
       <c r="D71" s="2"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4814,17 +4827,17 @@
       <c r="U72" s="67"/>
     </row>
     <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="111" t="s">
+      <c r="A73" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="112"/>
-      <c r="C73" s="112"/>
-      <c r="D73" s="112"/>
-      <c r="E73" s="112"/>
-      <c r="F73" s="112"/>
-      <c r="G73" s="121"/>
-      <c r="H73" s="121"/>
-      <c r="I73" s="121"/>
+      <c r="B73" s="120"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="120"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="120"/>
+      <c r="G73" s="131"/>
+      <c r="H73" s="131"/>
+      <c r="I73" s="131"/>
       <c r="J73" s="2"/>
       <c r="K73" s="68"/>
       <c r="L73" s="67"/>
@@ -4839,17 +4852,17 @@
       <c r="U73" s="67"/>
     </row>
     <row r="74" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="116" t="s">
+      <c r="A74" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="117"/>
-      <c r="C74" s="117"/>
-      <c r="D74" s="117"/>
-      <c r="E74" s="117"/>
-      <c r="F74" s="117"/>
-      <c r="G74" s="117"/>
-      <c r="H74" s="117"/>
-      <c r="I74" s="117"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="134"/>
+      <c r="H74" s="134"/>
+      <c r="I74" s="134"/>
       <c r="J74" s="2"/>
       <c r="K74" s="68"/>
       <c r="L74" s="67"/>
@@ -4864,17 +4877,17 @@
       <c r="U74" s="67"/>
     </row>
     <row r="75" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="116" t="s">
+      <c r="A75" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="117"/>
-      <c r="C75" s="117"/>
-      <c r="D75" s="117"/>
-      <c r="E75" s="117"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="117"/>
-      <c r="H75" s="117"/>
-      <c r="I75" s="117"/>
+      <c r="B75" s="134"/>
+      <c r="C75" s="134"/>
+      <c r="D75" s="134"/>
+      <c r="E75" s="134"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="134"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="134"/>
       <c r="J75" s="2"/>
       <c r="K75" s="68"/>
       <c r="L75" s="67"/>
@@ -4889,17 +4902,17 @@
       <c r="U75" s="67"/>
     </row>
     <row r="76" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="116" t="s">
+      <c r="A76" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="117"/>
-      <c r="C76" s="117"/>
-      <c r="D76" s="117"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="117"/>
-      <c r="I76" s="117"/>
+      <c r="B76" s="134"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="134"/>
+      <c r="E76" s="134"/>
+      <c r="F76" s="134"/>
+      <c r="G76" s="134"/>
+      <c r="H76" s="134"/>
+      <c r="I76" s="134"/>
       <c r="J76" s="2"/>
       <c r="K76" s="68"/>
       <c r="L76" s="67"/>
@@ -4914,17 +4927,17 @@
       <c r="U76" s="67"/>
     </row>
     <row r="77" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="116" t="s">
+      <c r="A77" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="121"/>
-      <c r="C77" s="121"/>
-      <c r="D77" s="121"/>
-      <c r="E77" s="121"/>
-      <c r="F77" s="121"/>
-      <c r="G77" s="121"/>
-      <c r="H77" s="121"/>
-      <c r="I77" s="121"/>
+      <c r="B77" s="131"/>
+      <c r="C77" s="131"/>
+      <c r="D77" s="131"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="131"/>
+      <c r="G77" s="131"/>
+      <c r="H77" s="131"/>
+      <c r="I77" s="131"/>
       <c r="J77" s="2"/>
       <c r="K77" s="68"/>
       <c r="L77" s="67"/>
@@ -4942,22 +4955,22 @@
       <c r="A78" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="135" t="s">
+      <c r="B78" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="136"/>
-      <c r="D78" s="136"/>
-      <c r="E78" s="136"/>
+      <c r="C78" s="153"/>
+      <c r="D78" s="153"/>
+      <c r="E78" s="153"/>
       <c r="F78" s="42" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="H78" s="111" t="s">
+      <c r="H78" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="I78" s="112"/>
+      <c r="I78" s="120"/>
       <c r="J78" s="2"/>
       <c r="K78" s="68"/>
       <c r="L78" s="67"/>
@@ -4975,23 +4988,23 @@
       <c r="A79" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="116" t="s">
+      <c r="B79" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="117"/>
-      <c r="D79" s="117"/>
-      <c r="E79" s="117"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="134"/>
+      <c r="E79" s="134"/>
       <c r="F79" s="44">
         <v>2</v>
       </c>
       <c r="G79" s="70">
         <v>5</v>
       </c>
-      <c r="H79" s="122">
+      <c r="H79" s="137">
         <f t="shared" ref="H79:H91" si="0">F79*G79</f>
         <v>10</v>
       </c>
-      <c r="I79" s="123"/>
+      <c r="I79" s="138"/>
       <c r="J79" s="2"/>
       <c r="K79" s="68"/>
       <c r="L79" s="67"/>
@@ -5009,23 +5022,23 @@
       <c r="A80" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="116" t="s">
+      <c r="B80" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="117"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="117"/>
+      <c r="C80" s="134"/>
+      <c r="D80" s="134"/>
+      <c r="E80" s="134"/>
       <c r="F80" s="44">
         <v>1</v>
       </c>
       <c r="G80" s="70">
         <v>5</v>
       </c>
-      <c r="H80" s="122">
+      <c r="H80" s="137">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I80" s="123"/>
+      <c r="I80" s="138"/>
       <c r="J80" s="2"/>
       <c r="K80" s="68"/>
       <c r="L80" s="67"/>
@@ -5043,23 +5056,23 @@
       <c r="A81" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="116" t="s">
+      <c r="B81" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="117"/>
-      <c r="D81" s="117"/>
-      <c r="E81" s="117"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="134"/>
       <c r="F81" s="44">
         <v>1</v>
       </c>
       <c r="G81" s="70">
         <v>2</v>
       </c>
-      <c r="H81" s="122">
+      <c r="H81" s="137">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I81" s="123"/>
+      <c r="I81" s="138"/>
       <c r="J81" s="2"/>
       <c r="K81" s="68"/>
       <c r="L81" s="67"/>
@@ -5077,23 +5090,23 @@
       <c r="A82" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="116" t="s">
+      <c r="B82" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="117"/>
-      <c r="D82" s="117"/>
-      <c r="E82" s="117"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="134"/>
       <c r="F82" s="44">
         <v>1</v>
       </c>
       <c r="G82" s="70">
         <v>4</v>
       </c>
-      <c r="H82" s="122">
+      <c r="H82" s="137">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I82" s="123"/>
+      <c r="I82" s="138"/>
       <c r="J82" s="2"/>
       <c r="K82" s="68"/>
       <c r="L82" s="67"/>
@@ -5111,23 +5124,23 @@
       <c r="A83" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="116" t="s">
+      <c r="B83" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="117"/>
-      <c r="D83" s="117"/>
-      <c r="E83" s="117"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
       <c r="F83" s="44">
         <v>1</v>
       </c>
       <c r="G83" s="70">
         <v>0</v>
       </c>
-      <c r="H83" s="122">
+      <c r="H83" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I83" s="123"/>
+      <c r="I83" s="138"/>
       <c r="J83" s="2"/>
       <c r="K83" s="68"/>
       <c r="L83" s="67"/>
@@ -5145,23 +5158,23 @@
       <c r="A84" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="116" t="s">
+      <c r="B84" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="117"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="134"/>
       <c r="F84" s="44">
         <v>0.5</v>
       </c>
       <c r="G84" s="70">
         <v>5</v>
       </c>
-      <c r="H84" s="122">
+      <c r="H84" s="137">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I84" s="123"/>
+      <c r="I84" s="138"/>
       <c r="J84" s="2"/>
       <c r="K84" s="68"/>
       <c r="L84" s="67"/>
@@ -5179,23 +5192,23 @@
       <c r="A85" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="116" t="s">
+      <c r="B85" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="117"/>
-      <c r="D85" s="117"/>
-      <c r="E85" s="117"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
       <c r="F85" s="44">
         <v>0.5</v>
       </c>
       <c r="G85" s="70">
         <v>5</v>
       </c>
-      <c r="H85" s="122">
+      <c r="H85" s="137">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I85" s="123"/>
+      <c r="I85" s="138"/>
       <c r="J85" s="2"/>
       <c r="K85" s="68"/>
       <c r="L85" s="67"/>
@@ -5213,23 +5226,23 @@
       <c r="A86" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="116" t="s">
+      <c r="B86" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="117"/>
-      <c r="D86" s="117"/>
-      <c r="E86" s="117"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="134"/>
       <c r="F86" s="44">
         <v>2</v>
       </c>
       <c r="G86" s="70">
         <v>5</v>
       </c>
-      <c r="H86" s="122">
+      <c r="H86" s="137">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I86" s="123"/>
+      <c r="I86" s="138"/>
       <c r="J86" s="2"/>
       <c r="K86" s="68"/>
       <c r="L86" s="67"/>
@@ -5247,23 +5260,23 @@
       <c r="A87" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="116" t="s">
+      <c r="B87" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
       <c r="F87" s="44">
         <v>1</v>
       </c>
       <c r="G87" s="70">
         <v>3</v>
       </c>
-      <c r="H87" s="122">
+      <c r="H87" s="137">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I87" s="123"/>
+      <c r="I87" s="138"/>
       <c r="J87" s="2"/>
       <c r="K87" s="68"/>
       <c r="L87" s="67"/>
@@ -5281,23 +5294,23 @@
       <c r="A88" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="116" t="s">
+      <c r="B88" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="117"/>
-      <c r="D88" s="117"/>
-      <c r="E88" s="117"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="134"/>
+      <c r="E88" s="134"/>
       <c r="F88" s="44">
         <v>1</v>
       </c>
       <c r="G88" s="70">
         <v>4</v>
       </c>
-      <c r="H88" s="122">
+      <c r="H88" s="137">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I88" s="123"/>
+      <c r="I88" s="138"/>
       <c r="J88" s="2"/>
       <c r="K88" s="68"/>
       <c r="L88" s="67"/>
@@ -5315,23 +5328,23 @@
       <c r="A89" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="116" t="s">
+      <c r="B89" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="C89" s="117"/>
-      <c r="D89" s="117"/>
-      <c r="E89" s="117"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="134"/>
+      <c r="E89" s="134"/>
       <c r="F89" s="44">
         <v>1</v>
       </c>
       <c r="G89" s="70">
         <v>5</v>
       </c>
-      <c r="H89" s="122">
+      <c r="H89" s="137">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I89" s="123"/>
+      <c r="I89" s="138"/>
       <c r="J89" s="2"/>
       <c r="K89" s="68"/>
       <c r="L89" s="67"/>
@@ -5349,23 +5362,23 @@
       <c r="A90" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="116" t="s">
+      <c r="B90" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="117"/>
-      <c r="D90" s="117"/>
-      <c r="E90" s="117"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="134"/>
       <c r="F90" s="44">
         <v>1</v>
       </c>
       <c r="G90" s="70">
         <v>2</v>
       </c>
-      <c r="H90" s="122">
+      <c r="H90" s="137">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I90" s="123"/>
+      <c r="I90" s="138"/>
       <c r="J90" s="2"/>
       <c r="K90" s="68"/>
       <c r="L90" s="67"/>
@@ -5383,23 +5396,23 @@
       <c r="A91" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="116" t="s">
+      <c r="B91" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="C91" s="117"/>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="134"/>
+      <c r="E91" s="134"/>
       <c r="F91" s="44">
         <v>1</v>
       </c>
       <c r="G91" s="70">
         <v>2</v>
       </c>
-      <c r="H91" s="122">
+      <c r="H91" s="137">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I91" s="123"/>
+      <c r="I91" s="138"/>
       <c r="J91" s="2"/>
       <c r="K91" s="68"/>
       <c r="L91" s="67"/>
@@ -5414,20 +5427,20 @@
       <c r="U91" s="67"/>
     </row>
     <row r="92" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="118" t="s">
+      <c r="A92" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="143"/>
-      <c r="C92" s="143"/>
-      <c r="D92" s="143"/>
-      <c r="E92" s="143"/>
-      <c r="F92" s="143"/>
-      <c r="G92" s="144"/>
-      <c r="H92" s="114">
+      <c r="B92" s="164"/>
+      <c r="C92" s="164"/>
+      <c r="D92" s="164"/>
+      <c r="E92" s="164"/>
+      <c r="F92" s="164"/>
+      <c r="G92" s="165"/>
+      <c r="H92" s="159">
         <f>0.6+(0.01*(SUM(H79:I91)))</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="I92" s="115"/>
+      <c r="I92" s="160"/>
       <c r="J92" s="2"/>
       <c r="K92" s="68"/>
       <c r="L92" s="67"/>
@@ -5465,17 +5478,17 @@
       <c r="U93" s="67"/>
     </row>
     <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="111" t="s">
+      <c r="A94" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="112"/>
-      <c r="D94" s="112"/>
-      <c r="E94" s="121"/>
-      <c r="F94" s="121"/>
-      <c r="G94" s="121"/>
-      <c r="H94" s="121"/>
-      <c r="I94" s="121"/>
+      <c r="B94" s="120"/>
+      <c r="C94" s="120"/>
+      <c r="D94" s="120"/>
+      <c r="E94" s="131"/>
+      <c r="F94" s="131"/>
+      <c r="G94" s="131"/>
+      <c r="H94" s="131"/>
+      <c r="I94" s="131"/>
       <c r="J94" s="2"/>
       <c r="K94" s="68"/>
       <c r="L94" s="67"/>
@@ -5490,17 +5503,17 @@
       <c r="U94" s="67"/>
     </row>
     <row r="95" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="116" t="s">
+      <c r="A95" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="B95" s="117"/>
-      <c r="C95" s="117"/>
-      <c r="D95" s="117"/>
-      <c r="E95" s="117"/>
-      <c r="F95" s="117"/>
-      <c r="G95" s="117"/>
-      <c r="H95" s="117"/>
-      <c r="I95" s="117"/>
+      <c r="B95" s="134"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="134"/>
+      <c r="E95" s="134"/>
+      <c r="F95" s="134"/>
+      <c r="G95" s="134"/>
+      <c r="H95" s="134"/>
+      <c r="I95" s="134"/>
       <c r="J95" s="2"/>
       <c r="K95" s="68"/>
       <c r="L95" s="67"/>
@@ -5515,17 +5528,17 @@
       <c r="U95" s="67"/>
     </row>
     <row r="96" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="116" t="s">
+      <c r="A96" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="B96" s="117"/>
-      <c r="C96" s="117"/>
-      <c r="D96" s="117"/>
-      <c r="E96" s="117"/>
-      <c r="F96" s="117"/>
-      <c r="G96" s="117"/>
-      <c r="H96" s="121"/>
-      <c r="I96" s="121"/>
+      <c r="B96" s="134"/>
+      <c r="C96" s="134"/>
+      <c r="D96" s="134"/>
+      <c r="E96" s="134"/>
+      <c r="F96" s="134"/>
+      <c r="G96" s="134"/>
+      <c r="H96" s="131"/>
+      <c r="I96" s="131"/>
       <c r="J96" s="2"/>
       <c r="K96" s="68"/>
       <c r="L96" s="67"/>
@@ -5540,17 +5553,17 @@
       <c r="U96" s="67"/>
     </row>
     <row r="97" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="116" t="s">
+      <c r="A97" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="B97" s="117"/>
-      <c r="C97" s="117"/>
-      <c r="D97" s="117"/>
-      <c r="E97" s="117"/>
-      <c r="F97" s="117"/>
-      <c r="G97" s="117"/>
-      <c r="H97" s="121"/>
-      <c r="I97" s="121"/>
+      <c r="B97" s="134"/>
+      <c r="C97" s="134"/>
+      <c r="D97" s="134"/>
+      <c r="E97" s="134"/>
+      <c r="F97" s="134"/>
+      <c r="G97" s="134"/>
+      <c r="H97" s="131"/>
+      <c r="I97" s="131"/>
       <c r="J97" s="2"/>
       <c r="K97" s="68"/>
       <c r="L97" s="67"/>
@@ -5565,17 +5578,17 @@
       <c r="U97" s="67"/>
     </row>
     <row r="98" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="116" t="s">
+      <c r="A98" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="121"/>
-      <c r="C98" s="121"/>
-      <c r="D98" s="121"/>
-      <c r="E98" s="121"/>
-      <c r="F98" s="121"/>
-      <c r="G98" s="121"/>
-      <c r="H98" s="121"/>
-      <c r="I98" s="121"/>
+      <c r="B98" s="131"/>
+      <c r="C98" s="131"/>
+      <c r="D98" s="131"/>
+      <c r="E98" s="131"/>
+      <c r="F98" s="131"/>
+      <c r="G98" s="131"/>
+      <c r="H98" s="131"/>
+      <c r="I98" s="131"/>
       <c r="J98" s="2"/>
       <c r="K98" s="68"/>
       <c r="L98" s="67"/>
@@ -5593,13 +5606,13 @@
       <c r="A99" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="135" t="s">
+      <c r="B99" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="117"/>
-      <c r="D99" s="117"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="117"/>
+      <c r="C99" s="134"/>
+      <c r="D99" s="134"/>
+      <c r="E99" s="134"/>
+      <c r="F99" s="134"/>
       <c r="G99" s="42" t="s">
         <v>18</v>
       </c>
@@ -5626,13 +5639,13 @@
       <c r="A100" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B100" s="116" t="s">
+      <c r="B100" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="C100" s="117"/>
-      <c r="D100" s="117"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="117"/>
+      <c r="C100" s="134"/>
+      <c r="D100" s="134"/>
+      <c r="E100" s="134"/>
+      <c r="F100" s="134"/>
       <c r="G100" s="44">
         <v>1.5</v>
       </c>
@@ -5663,13 +5676,13 @@
       <c r="A101" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="B101" s="116" t="s">
+      <c r="B101" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="C101" s="117"/>
-      <c r="D101" s="117"/>
-      <c r="E101" s="117"/>
-      <c r="F101" s="117"/>
+      <c r="C101" s="134"/>
+      <c r="D101" s="134"/>
+      <c r="E101" s="134"/>
+      <c r="F101" s="134"/>
       <c r="G101" s="44">
         <v>0.5</v>
       </c>
@@ -5700,13 +5713,13 @@
       <c r="A102" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B102" s="116" t="s">
+      <c r="B102" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="C102" s="117"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
-      <c r="F102" s="117"/>
+      <c r="C102" s="134"/>
+      <c r="D102" s="134"/>
+      <c r="E102" s="134"/>
+      <c r="F102" s="134"/>
       <c r="G102" s="44">
         <v>1</v>
       </c>
@@ -5737,13 +5750,13 @@
       <c r="A103" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="B103" s="116" t="s">
+      <c r="B103" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="C103" s="117"/>
-      <c r="D103" s="117"/>
-      <c r="E103" s="117"/>
-      <c r="F103" s="117"/>
+      <c r="C103" s="134"/>
+      <c r="D103" s="134"/>
+      <c r="E103" s="134"/>
+      <c r="F103" s="134"/>
       <c r="G103" s="44">
         <v>0.5</v>
       </c>
@@ -5774,13 +5787,13 @@
       <c r="A104" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B104" s="116" t="s">
+      <c r="B104" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C104" s="117"/>
-      <c r="D104" s="117"/>
-      <c r="E104" s="117"/>
-      <c r="F104" s="117"/>
+      <c r="C104" s="134"/>
+      <c r="D104" s="134"/>
+      <c r="E104" s="134"/>
+      <c r="F104" s="134"/>
       <c r="G104" s="44">
         <v>1</v>
       </c>
@@ -5811,13 +5824,13 @@
       <c r="A105" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="116" t="s">
+      <c r="B105" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="C105" s="117"/>
-      <c r="D105" s="117"/>
-      <c r="E105" s="117"/>
-      <c r="F105" s="117"/>
+      <c r="C105" s="134"/>
+      <c r="D105" s="134"/>
+      <c r="E105" s="134"/>
+      <c r="F105" s="134"/>
       <c r="G105" s="44">
         <v>2</v>
       </c>
@@ -5848,13 +5861,13 @@
       <c r="A106" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="B106" s="116" t="s">
+      <c r="B106" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="C106" s="117"/>
-      <c r="D106" s="117"/>
-      <c r="E106" s="117"/>
-      <c r="F106" s="117"/>
+      <c r="C106" s="134"/>
+      <c r="D106" s="134"/>
+      <c r="E106" s="134"/>
+      <c r="F106" s="134"/>
       <c r="G106" s="44">
         <v>-1</v>
       </c>
@@ -5885,13 +5898,13 @@
       <c r="A107" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="B107" s="116" t="s">
+      <c r="B107" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="C107" s="117"/>
-      <c r="D107" s="117"/>
-      <c r="E107" s="117"/>
-      <c r="F107" s="117"/>
+      <c r="C107" s="134"/>
+      <c r="D107" s="134"/>
+      <c r="E107" s="134"/>
+      <c r="F107" s="134"/>
       <c r="G107" s="44">
         <v>-1</v>
       </c>
@@ -5919,16 +5932,16 @@
       <c r="U107" s="3"/>
     </row>
     <row r="108" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="118" t="s">
+      <c r="A108" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="119"/>
-      <c r="C108" s="119"/>
-      <c r="D108" s="119"/>
-      <c r="E108" s="119"/>
-      <c r="F108" s="119"/>
-      <c r="G108" s="119"/>
-      <c r="H108" s="120"/>
+      <c r="B108" s="162"/>
+      <c r="C108" s="162"/>
+      <c r="D108" s="162"/>
+      <c r="E108" s="162"/>
+      <c r="F108" s="162"/>
+      <c r="G108" s="162"/>
+      <c r="H108" s="163"/>
       <c r="I108" s="73">
         <f>1.4+(-0.03*(SUM(I100:I107)))</f>
         <v>0.85999999999999988</v>
@@ -6021,17 +6034,17 @@
       <c r="U111" s="3"/>
     </row>
     <row r="112" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="109" t="s">
+      <c r="A112" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="110"/>
-      <c r="C112" s="110"/>
-      <c r="D112" s="110"/>
-      <c r="E112" s="110"/>
-      <c r="F112" s="110"/>
-      <c r="G112" s="110"/>
-      <c r="H112" s="110"/>
-      <c r="I112" s="110"/>
+      <c r="B112" s="158"/>
+      <c r="C112" s="158"/>
+      <c r="D112" s="158"/>
+      <c r="E112" s="158"/>
+      <c r="F112" s="158"/>
+      <c r="G112" s="158"/>
+      <c r="H112" s="158"/>
+      <c r="I112" s="158"/>
       <c r="J112" s="78"/>
       <c r="K112" s="78"/>
       <c r="L112" s="3"/>
@@ -6069,16 +6082,16 @@
       <c r="U113" s="3"/>
     </row>
     <row r="114" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="137" t="s">
+      <c r="A114" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="B114" s="138"/>
-      <c r="C114" s="138"/>
-      <c r="D114" s="138"/>
-      <c r="E114" s="138"/>
-      <c r="F114" s="138"/>
-      <c r="G114" s="138"/>
-      <c r="H114" s="138"/>
+      <c r="B114" s="140"/>
+      <c r="C114" s="140"/>
+      <c r="D114" s="140"/>
+      <c r="E114" s="140"/>
+      <c r="F114" s="140"/>
+      <c r="G114" s="140"/>
+      <c r="H114" s="140"/>
       <c r="I114" s="2"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -6278,17 +6291,17 @@
       <c r="U120" s="3"/>
     </row>
     <row r="121" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="156" t="s">
+      <c r="A121" s="124" t="s">
         <v>141</v>
       </c>
-      <c r="B121" s="157"/>
-      <c r="C121" s="157"/>
-      <c r="D121" s="157"/>
-      <c r="E121" s="157"/>
-      <c r="F121" s="157"/>
-      <c r="G121" s="157"/>
-      <c r="H121" s="157"/>
-      <c r="I121" s="158"/>
+      <c r="B121" s="125"/>
+      <c r="C121" s="125"/>
+      <c r="D121" s="125"/>
+      <c r="E121" s="125"/>
+      <c r="F121" s="125"/>
+      <c r="G121" s="125"/>
+      <c r="H121" s="125"/>
+      <c r="I121" s="126"/>
       <c r="J121" s="26"/>
       <c r="K121" s="26"/>
       <c r="L121" s="3"/>
@@ -6303,17 +6316,17 @@
       <c r="U121" s="3"/>
     </row>
     <row r="122" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="152" t="s">
+      <c r="A122" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="B122" s="112"/>
-      <c r="C122" s="112"/>
-      <c r="D122" s="112"/>
-      <c r="E122" s="112"/>
-      <c r="F122" s="112"/>
-      <c r="G122" s="112"/>
-      <c r="H122" s="112"/>
-      <c r="I122" s="153"/>
+      <c r="B122" s="120"/>
+      <c r="C122" s="120"/>
+      <c r="D122" s="120"/>
+      <c r="E122" s="120"/>
+      <c r="F122" s="120"/>
+      <c r="G122" s="120"/>
+      <c r="H122" s="120"/>
+      <c r="I122" s="121"/>
       <c r="J122" s="26"/>
       <c r="K122" s="26"/>
       <c r="L122" s="3"/>
@@ -6328,17 +6341,17 @@
       <c r="U122" s="3"/>
     </row>
     <row r="123" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="145" t="s">
+      <c r="A123" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="B123" s="117"/>
-      <c r="C123" s="117"/>
-      <c r="D123" s="117"/>
-      <c r="E123" s="117"/>
-      <c r="F123" s="117"/>
-      <c r="G123" s="117"/>
-      <c r="H123" s="117"/>
-      <c r="I123" s="146"/>
+      <c r="B123" s="134"/>
+      <c r="C123" s="134"/>
+      <c r="D123" s="134"/>
+      <c r="E123" s="134"/>
+      <c r="F123" s="134"/>
+      <c r="G123" s="134"/>
+      <c r="H123" s="134"/>
+      <c r="I123" s="135"/>
       <c r="J123" s="26"/>
       <c r="K123" s="26"/>
       <c r="L123" s="3"/>
@@ -6353,17 +6366,17 @@
       <c r="U123" s="3"/>
     </row>
     <row r="124" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="145" t="s">
+      <c r="A124" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="B124" s="117"/>
-      <c r="C124" s="117"/>
-      <c r="D124" s="117"/>
-      <c r="E124" s="117"/>
-      <c r="F124" s="117"/>
-      <c r="G124" s="117"/>
-      <c r="H124" s="117"/>
-      <c r="I124" s="146"/>
+      <c r="B124" s="134"/>
+      <c r="C124" s="134"/>
+      <c r="D124" s="134"/>
+      <c r="E124" s="134"/>
+      <c r="F124" s="134"/>
+      <c r="G124" s="134"/>
+      <c r="H124" s="134"/>
+      <c r="I124" s="135"/>
       <c r="J124" s="26"/>
       <c r="K124" s="26"/>
       <c r="L124" s="3"/>
@@ -6378,16 +6391,16 @@
       <c r="U124" s="3"/>
     </row>
     <row r="125" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="159"/>
-      <c r="B125" s="160"/>
-      <c r="C125" s="160"/>
-      <c r="D125" s="160"/>
-      <c r="E125" s="160"/>
-      <c r="F125" s="161"/>
-      <c r="G125" s="147" t="s">
+      <c r="A125" s="127"/>
+      <c r="B125" s="128"/>
+      <c r="C125" s="128"/>
+      <c r="D125" s="128"/>
+      <c r="E125" s="128"/>
+      <c r="F125" s="129"/>
+      <c r="G125" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="H125" s="148"/>
+      <c r="H125" s="118"/>
       <c r="I125" s="92">
         <f>SUM(J100:J105)</f>
         <v>0</v>
@@ -6406,16 +6419,16 @@
       <c r="U125" s="3"/>
     </row>
     <row r="126" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="159"/>
-      <c r="B126" s="160"/>
-      <c r="C126" s="160"/>
-      <c r="D126" s="160"/>
-      <c r="E126" s="160"/>
-      <c r="F126" s="161"/>
-      <c r="G126" s="147" t="s">
+      <c r="A126" s="127"/>
+      <c r="B126" s="128"/>
+      <c r="C126" s="128"/>
+      <c r="D126" s="128"/>
+      <c r="E126" s="128"/>
+      <c r="F126" s="129"/>
+      <c r="G126" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="H126" s="148"/>
+      <c r="H126" s="118"/>
       <c r="I126" s="92">
         <f>SUM(J106:J107)</f>
         <v>1</v>
@@ -6434,16 +6447,16 @@
       <c r="U126" s="3"/>
     </row>
     <row r="127" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="159"/>
-      <c r="B127" s="160"/>
-      <c r="C127" s="160"/>
-      <c r="D127" s="160"/>
-      <c r="E127" s="160"/>
-      <c r="F127" s="161"/>
-      <c r="G127" s="147" t="s">
+      <c r="A127" s="127"/>
+      <c r="B127" s="128"/>
+      <c r="C127" s="128"/>
+      <c r="D127" s="128"/>
+      <c r="E127" s="128"/>
+      <c r="F127" s="129"/>
+      <c r="G127" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="H127" s="148"/>
+      <c r="H127" s="118"/>
       <c r="I127" s="92">
         <f>I125+I126</f>
         <v>1</v>
@@ -6462,16 +6475,16 @@
       <c r="U127" s="3"/>
     </row>
     <row r="128" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="154" t="s">
+      <c r="A128" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="B128" s="155"/>
-      <c r="C128" s="155"/>
-      <c r="D128" s="155"/>
-      <c r="E128" s="155"/>
-      <c r="F128" s="155"/>
-      <c r="G128" s="155"/>
-      <c r="H128" s="155"/>
+      <c r="B128" s="123"/>
+      <c r="C128" s="123"/>
+      <c r="D128" s="123"/>
+      <c r="E128" s="123"/>
+      <c r="F128" s="123"/>
+      <c r="G128" s="123"/>
+      <c r="H128" s="123"/>
       <c r="I128" s="93">
         <f>C136</f>
         <v>20</v>
@@ -6490,17 +6503,17 @@
       <c r="U128" s="3"/>
     </row>
     <row r="129" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="152" t="s">
+      <c r="A129" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B129" s="112"/>
-      <c r="C129" s="112"/>
-      <c r="D129" s="112"/>
-      <c r="E129" s="112"/>
-      <c r="F129" s="112"/>
-      <c r="G129" s="112"/>
-      <c r="H129" s="112"/>
-      <c r="I129" s="153"/>
+      <c r="B129" s="120"/>
+      <c r="C129" s="120"/>
+      <c r="D129" s="120"/>
+      <c r="E129" s="120"/>
+      <c r="F129" s="120"/>
+      <c r="G129" s="120"/>
+      <c r="H129" s="120"/>
+      <c r="I129" s="121"/>
       <c r="J129" s="26"/>
       <c r="K129" s="26"/>
       <c r="L129" s="3"/>
@@ -6515,17 +6528,17 @@
       <c r="U129" s="3"/>
     </row>
     <row r="130" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="141" t="s">
+      <c r="A130" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="B130" s="121"/>
-      <c r="C130" s="121"/>
-      <c r="D130" s="121"/>
-      <c r="E130" s="121"/>
-      <c r="F130" s="121"/>
-      <c r="G130" s="121"/>
-      <c r="H130" s="121"/>
-      <c r="I130" s="142"/>
+      <c r="B130" s="131"/>
+      <c r="C130" s="131"/>
+      <c r="D130" s="131"/>
+      <c r="E130" s="131"/>
+      <c r="F130" s="131"/>
+      <c r="G130" s="131"/>
+      <c r="H130" s="131"/>
+      <c r="I130" s="132"/>
       <c r="J130" s="26"/>
       <c r="K130" s="26"/>
       <c r="L130" s="3"/>
@@ -6540,17 +6553,17 @@
       <c r="U130" s="3"/>
     </row>
     <row r="131" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="141" t="s">
+      <c r="A131" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="B131" s="121"/>
-      <c r="C131" s="121"/>
-      <c r="D131" s="121"/>
-      <c r="E131" s="121"/>
-      <c r="F131" s="121"/>
-      <c r="G131" s="121"/>
-      <c r="H131" s="121"/>
-      <c r="I131" s="142"/>
+      <c r="B131" s="131"/>
+      <c r="C131" s="131"/>
+      <c r="D131" s="131"/>
+      <c r="E131" s="131"/>
+      <c r="F131" s="131"/>
+      <c r="G131" s="131"/>
+      <c r="H131" s="131"/>
+      <c r="I131" s="132"/>
       <c r="J131" s="26"/>
       <c r="K131" s="26"/>
       <c r="L131" s="3"/>
@@ -6565,17 +6578,17 @@
       <c r="U131" s="3"/>
     </row>
     <row r="132" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="149" t="s">
+      <c r="A132" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="B132" s="150"/>
-      <c r="C132" s="150"/>
-      <c r="D132" s="150"/>
-      <c r="E132" s="150"/>
-      <c r="F132" s="150"/>
-      <c r="G132" s="150"/>
-      <c r="H132" s="150"/>
-      <c r="I132" s="151"/>
+      <c r="B132" s="115"/>
+      <c r="C132" s="115"/>
+      <c r="D132" s="115"/>
+      <c r="E132" s="115"/>
+      <c r="F132" s="115"/>
+      <c r="G132" s="115"/>
+      <c r="H132" s="115"/>
+      <c r="I132" s="116"/>
       <c r="J132" s="26"/>
       <c r="K132" s="26"/>
       <c r="L132" s="3"/>
@@ -6613,16 +6626,16 @@
       <c r="U133" s="3"/>
     </row>
     <row r="134" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="137" t="s">
+      <c r="A134" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="B134" s="138"/>
-      <c r="C134" s="138"/>
-      <c r="D134" s="138"/>
-      <c r="E134" s="138"/>
-      <c r="F134" s="138"/>
-      <c r="G134" s="138"/>
-      <c r="H134" s="138"/>
+      <c r="B134" s="140"/>
+      <c r="C134" s="140"/>
+      <c r="D134" s="140"/>
+      <c r="E134" s="140"/>
+      <c r="F134" s="140"/>
+      <c r="G134" s="140"/>
+      <c r="H134" s="140"/>
       <c r="I134" s="2"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -6926,56 +6939,54 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A132:I132"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="A129:I129"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A131:I131"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A124:I124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="A94:I94"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="A134:H134"/>
     <mergeCell ref="A114:H114"/>
     <mergeCell ref="B69:C69"/>
@@ -7000,54 +7011,56 @@
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="A76:I76"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="A73:I73"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="A94:I94"/>
-    <mergeCell ref="A95:I95"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="A129:I129"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A131:I131"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A124:I124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B28" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7075,8 +7088,8 @@
   </sheetPr>
   <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView showGridLines="0" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D129" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7096,17 +7109,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="149"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
@@ -7147,11 +7160,11 @@
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -7475,17 +7488,17 @@
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3"/>
@@ -7503,15 +7516,15 @@
       <c r="A17" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
       <c r="I17" s="42" t="s">
         <v>18</v>
       </c>
@@ -7532,15 +7545,15 @@
       <c r="A18" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="44">
         <v>1</v>
       </c>
@@ -7561,15 +7574,15 @@
       <c r="A19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
       <c r="I19" s="44">
         <v>2</v>
       </c>
@@ -7592,15 +7605,15 @@
       <c r="A20" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
       <c r="I20" s="44">
         <v>3</v>
       </c>
@@ -7648,10 +7661,10 @@
       <c r="A22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="134"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -7675,10 +7688,10 @@
       <c r="A23" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="124">
+      <c r="B23" s="112">
         <v>3</v>
       </c>
-      <c r="C23" s="125"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="52"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -7702,10 +7715,10 @@
       <c r="A24" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="124">
+      <c r="B24" s="112">
         <v>3</v>
       </c>
-      <c r="C24" s="125"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="52"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -7729,10 +7742,10 @@
       <c r="A25" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="124">
+      <c r="B25" s="112">
         <v>3</v>
       </c>
-      <c r="C25" s="125"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -7756,10 +7769,10 @@
       <c r="A26" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="124">
+      <c r="B26" s="112">
         <v>2</v>
       </c>
-      <c r="C26" s="125"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -7783,10 +7796,10 @@
       <c r="A27" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="124">
+      <c r="B27" s="112">
         <v>1</v>
       </c>
-      <c r="C27" s="125"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -7810,11 +7823,11 @@
       <c r="A28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="114">
+      <c r="B28" s="159">
         <f>SUM(B23:C27)</f>
         <v>12</v>
       </c>
-      <c r="C28" s="115"/>
+      <c r="C28" s="160"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -7858,17 +7871,17 @@
       <c r="U29" s="3"/>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
@@ -7886,15 +7899,15 @@
       <c r="A31" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
       <c r="I31" s="42" t="s">
         <v>18</v>
       </c>
@@ -7915,15 +7928,15 @@
       <c r="A32" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
       <c r="I32" s="44">
         <v>5</v>
       </c>
@@ -7944,15 +7957,15 @@
       <c r="A33" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
       <c r="I33" s="44">
         <v>10</v>
       </c>
@@ -7975,15 +7988,15 @@
       <c r="A34" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
       <c r="I34" s="44">
         <v>15</v>
       </c>
@@ -8031,10 +8044,10 @@
       <c r="A36" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="134"/>
+      <c r="C36" s="144"/>
       <c r="D36" s="58"/>
       <c r="E36" s="59"/>
       <c r="F36" s="3"/>
@@ -8060,10 +8073,10 @@
       <c r="A37" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="131">
+      <c r="B37" s="110">
         <v>5</v>
       </c>
-      <c r="C37" s="132"/>
+      <c r="C37" s="111"/>
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
       <c r="F37" s="60"/>
@@ -8087,10 +8100,10 @@
       <c r="A38" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="131">
+      <c r="B38" s="110">
         <v>5</v>
       </c>
-      <c r="C38" s="132"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="60"/>
@@ -8114,10 +8127,10 @@
       <c r="A39" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="131">
+      <c r="B39" s="110">
         <v>5</v>
       </c>
-      <c r="C39" s="132"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="60"/>
@@ -8141,10 +8154,10 @@
       <c r="A40" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="131">
+      <c r="B40" s="110">
         <v>5</v>
       </c>
-      <c r="C40" s="132"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="60"/>
@@ -8168,10 +8181,10 @@
       <c r="A41" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="131">
+      <c r="B41" s="110">
         <v>5</v>
       </c>
-      <c r="C41" s="132"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
       <c r="F41" s="60"/>
@@ -8195,10 +8208,10 @@
       <c r="A42" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="131">
+      <c r="B42" s="110">
         <v>5</v>
       </c>
-      <c r="C42" s="132"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
       <c r="F42" s="60"/>
@@ -8222,10 +8235,10 @@
       <c r="A43" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="131">
+      <c r="B43" s="110">
         <v>5</v>
       </c>
-      <c r="C43" s="132"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
       <c r="F43" s="60"/>
@@ -8249,10 +8262,10 @@
       <c r="A44" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="131">
+      <c r="B44" s="110">
         <v>5</v>
       </c>
-      <c r="C44" s="132"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
       <c r="F44" s="60"/>
@@ -8276,10 +8289,10 @@
       <c r="A45" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="131">
+      <c r="B45" s="110">
         <v>5</v>
       </c>
-      <c r="C45" s="132"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3"/>
       <c r="F45" s="60"/>
@@ -8303,10 +8316,10 @@
       <c r="A46" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="131">
+      <c r="B46" s="110">
         <v>5</v>
       </c>
-      <c r="C46" s="132"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="60"/>
@@ -8330,10 +8343,10 @@
       <c r="A47" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="131">
+      <c r="B47" s="110">
         <v>5</v>
       </c>
-      <c r="C47" s="132"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3"/>
       <c r="F47" s="60"/>
@@ -8357,10 +8370,10 @@
       <c r="A48" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="131">
+      <c r="B48" s="110">
         <v>5</v>
       </c>
-      <c r="C48" s="132"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
       <c r="F48" s="60"/>
@@ -8384,10 +8397,10 @@
       <c r="A49" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="131">
+      <c r="B49" s="110">
         <v>5</v>
       </c>
-      <c r="C49" s="132"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
       <c r="F49" s="60"/>
@@ -8411,10 +8424,10 @@
       <c r="A50" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="131">
+      <c r="B50" s="110">
         <v>5</v>
       </c>
-      <c r="C50" s="132"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
       <c r="F50" s="60"/>
@@ -8438,10 +8451,10 @@
       <c r="A51" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="131">
+      <c r="B51" s="110">
         <v>5</v>
       </c>
-      <c r="C51" s="132"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
       <c r="F51" s="60"/>
@@ -8465,10 +8478,10 @@
       <c r="A52" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="131">
+      <c r="B52" s="110">
         <v>5</v>
       </c>
-      <c r="C52" s="132"/>
+      <c r="C52" s="111"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
       <c r="F52" s="60"/>
@@ -8492,10 +8505,10 @@
       <c r="A53" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="131">
+      <c r="B53" s="110">
         <v>5</v>
       </c>
-      <c r="C53" s="132"/>
+      <c r="C53" s="111"/>
       <c r="D53" s="52"/>
       <c r="E53" s="60"/>
       <c r="F53" s="3"/>
@@ -8519,10 +8532,10 @@
       <c r="A54" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="131">
+      <c r="B54" s="110">
         <v>5</v>
       </c>
-      <c r="C54" s="132"/>
+      <c r="C54" s="111"/>
       <c r="D54" s="52"/>
       <c r="E54" s="60"/>
       <c r="F54" s="3"/>
@@ -8546,10 +8559,10 @@
       <c r="A55" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="131">
+      <c r="B55" s="110">
         <v>5</v>
       </c>
-      <c r="C55" s="132"/>
+      <c r="C55" s="111"/>
       <c r="D55" s="52"/>
       <c r="E55" s="60"/>
       <c r="F55" s="3"/>
@@ -8573,10 +8586,10 @@
       <c r="A56" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="131">
+      <c r="B56" s="110">
         <v>5</v>
       </c>
-      <c r="C56" s="132"/>
+      <c r="C56" s="111"/>
       <c r="D56" s="52"/>
       <c r="E56" s="60"/>
       <c r="F56" s="3"/>
@@ -8600,11 +8613,11 @@
       <c r="A57" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="139">
+      <c r="B57" s="141">
         <f>SUM(B37:B56)</f>
         <v>100</v>
       </c>
-      <c r="C57" s="140"/>
+      <c r="C57" s="142"/>
       <c r="D57" s="62" t="s">
         <v>73</v>
       </c>
@@ -8653,11 +8666,11 @@
       <c r="A59" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="114">
+      <c r="B59" s="159">
         <f>B28+B57</f>
         <v>112</v>
       </c>
-      <c r="C59" s="115"/>
+      <c r="C59" s="160"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -8701,17 +8714,17 @@
       <c r="U60" s="67"/>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="111" t="s">
+      <c r="A61" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="112"/>
-      <c r="C61" s="112"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="121"/>
-      <c r="I61" s="121"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="120"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="131"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131"/>
       <c r="J61" s="2"/>
       <c r="K61" s="68"/>
       <c r="L61" s="67"/>
@@ -8726,17 +8739,17 @@
       <c r="U61" s="67"/>
     </row>
     <row r="62" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="116" t="s">
+      <c r="A62" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="117"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="117"/>
-      <c r="E62" s="117"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="117"/>
-      <c r="H62" s="117"/>
-      <c r="I62" s="117"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
       <c r="J62" s="2"/>
       <c r="K62" s="68"/>
       <c r="L62" s="67"/>
@@ -8751,17 +8764,17 @@
       <c r="U62" s="67"/>
     </row>
     <row r="63" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="116" t="s">
+      <c r="A63" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="117"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="117"/>
-      <c r="E63" s="117"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="117"/>
-      <c r="H63" s="117"/>
-      <c r="I63" s="117"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
       <c r="J63" s="2"/>
       <c r="K63" s="68"/>
       <c r="L63" s="67"/>
@@ -8776,17 +8789,17 @@
       <c r="U63" s="67"/>
     </row>
     <row r="64" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="116" t="s">
+      <c r="A64" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="117"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
       <c r="J64" s="2"/>
       <c r="K64" s="68"/>
       <c r="L64" s="67"/>
@@ -8801,17 +8814,17 @@
       <c r="U64" s="67"/>
     </row>
     <row r="65" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="116" t="s">
+      <c r="A65" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="121"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="121"/>
-      <c r="E65" s="121"/>
-      <c r="F65" s="121"/>
-      <c r="G65" s="121"/>
-      <c r="H65" s="121"/>
-      <c r="I65" s="121"/>
+      <c r="B65" s="131"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="131"/>
+      <c r="F65" s="131"/>
+      <c r="G65" s="131"/>
+      <c r="H65" s="131"/>
+      <c r="I65" s="131"/>
       <c r="J65" s="2"/>
       <c r="K65" s="68"/>
       <c r="L65" s="67"/>
@@ -8829,22 +8842,22 @@
       <c r="A66" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="135" t="s">
+      <c r="B66" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="136"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="136"/>
+      <c r="C66" s="153"/>
+      <c r="D66" s="153"/>
+      <c r="E66" s="153"/>
       <c r="F66" s="42" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="H66" s="111" t="s">
+      <c r="H66" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="I66" s="112"/>
+      <c r="I66" s="120"/>
       <c r="J66" s="2"/>
       <c r="K66" s="68"/>
       <c r="L66" s="67"/>
@@ -8862,23 +8875,23 @@
       <c r="A67" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="116" t="s">
+      <c r="B67" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="117"/>
-      <c r="D67" s="117"/>
-      <c r="E67" s="117"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="134"/>
+      <c r="E67" s="134"/>
       <c r="F67" s="44">
         <v>2</v>
       </c>
       <c r="G67" s="70">
         <v>5</v>
       </c>
-      <c r="H67" s="122">
+      <c r="H67" s="137">
         <f t="shared" ref="H67:H79" si="0">F67*G67</f>
         <v>10</v>
       </c>
-      <c r="I67" s="123"/>
+      <c r="I67" s="138"/>
       <c r="J67" s="2"/>
       <c r="K67" s="68"/>
       <c r="L67" s="67"/>
@@ -8896,23 +8909,23 @@
       <c r="A68" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B68" s="116" t="s">
+      <c r="B68" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="117"/>
-      <c r="D68" s="117"/>
-      <c r="E68" s="117"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="134"/>
       <c r="F68" s="44">
         <v>1</v>
       </c>
       <c r="G68" s="70">
         <v>5</v>
       </c>
-      <c r="H68" s="122">
+      <c r="H68" s="137">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I68" s="123"/>
+      <c r="I68" s="138"/>
       <c r="J68" s="2"/>
       <c r="K68" s="68"/>
       <c r="L68" s="67"/>
@@ -8930,23 +8943,23 @@
       <c r="A69" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="116" t="s">
+      <c r="B69" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="117"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="117"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="134"/>
+      <c r="E69" s="134"/>
       <c r="F69" s="44">
         <v>1</v>
       </c>
       <c r="G69" s="70">
         <v>2</v>
       </c>
-      <c r="H69" s="122">
+      <c r="H69" s="137">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I69" s="123"/>
+      <c r="I69" s="138"/>
       <c r="J69" s="2"/>
       <c r="K69" s="68"/>
       <c r="L69" s="67"/>
@@ -8964,23 +8977,23 @@
       <c r="A70" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="116" t="s">
+      <c r="B70" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="117"/>
-      <c r="D70" s="117"/>
-      <c r="E70" s="117"/>
+      <c r="C70" s="134"/>
+      <c r="D70" s="134"/>
+      <c r="E70" s="134"/>
       <c r="F70" s="44">
         <v>1</v>
       </c>
       <c r="G70" s="70">
         <v>4</v>
       </c>
-      <c r="H70" s="122">
+      <c r="H70" s="137">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I70" s="123"/>
+      <c r="I70" s="138"/>
       <c r="J70" s="2"/>
       <c r="K70" s="68"/>
       <c r="L70" s="67"/>
@@ -8998,23 +9011,23 @@
       <c r="A71" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="116" t="s">
+      <c r="B71" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="117"/>
-      <c r="D71" s="117"/>
-      <c r="E71" s="117"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
       <c r="F71" s="44">
         <v>1</v>
       </c>
       <c r="G71" s="70">
         <v>0</v>
       </c>
-      <c r="H71" s="122">
+      <c r="H71" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I71" s="123"/>
+      <c r="I71" s="138"/>
       <c r="J71" s="2"/>
       <c r="K71" s="68"/>
       <c r="L71" s="67"/>
@@ -9032,23 +9045,23 @@
       <c r="A72" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="116" t="s">
+      <c r="B72" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="117"/>
-      <c r="D72" s="117"/>
-      <c r="E72" s="117"/>
+      <c r="C72" s="134"/>
+      <c r="D72" s="134"/>
+      <c r="E72" s="134"/>
       <c r="F72" s="44">
         <v>0.5</v>
       </c>
       <c r="G72" s="70">
         <v>5</v>
       </c>
-      <c r="H72" s="122">
+      <c r="H72" s="137">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I72" s="123"/>
+      <c r="I72" s="138"/>
       <c r="J72" s="2"/>
       <c r="K72" s="68"/>
       <c r="L72" s="67"/>
@@ -9066,23 +9079,23 @@
       <c r="A73" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="116" t="s">
+      <c r="B73" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="117"/>
-      <c r="D73" s="117"/>
-      <c r="E73" s="117"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
+      <c r="E73" s="134"/>
       <c r="F73" s="44">
         <v>0.5</v>
       </c>
       <c r="G73" s="70">
         <v>5</v>
       </c>
-      <c r="H73" s="122">
+      <c r="H73" s="137">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I73" s="123"/>
+      <c r="I73" s="138"/>
       <c r="J73" s="2"/>
       <c r="K73" s="68"/>
       <c r="L73" s="67"/>
@@ -9100,23 +9113,23 @@
       <c r="A74" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="116" t="s">
+      <c r="B74" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="117"/>
-      <c r="D74" s="117"/>
-      <c r="E74" s="117"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="134"/>
       <c r="F74" s="44">
         <v>2</v>
       </c>
       <c r="G74" s="70">
         <v>5</v>
       </c>
-      <c r="H74" s="122">
+      <c r="H74" s="137">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I74" s="123"/>
+      <c r="I74" s="138"/>
       <c r="J74" s="2"/>
       <c r="K74" s="68"/>
       <c r="L74" s="67"/>
@@ -9134,23 +9147,23 @@
       <c r="A75" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="116" t="s">
+      <c r="B75" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="117"/>
-      <c r="D75" s="117"/>
-      <c r="E75" s="117"/>
+      <c r="C75" s="134"/>
+      <c r="D75" s="134"/>
+      <c r="E75" s="134"/>
       <c r="F75" s="44">
         <v>1</v>
       </c>
       <c r="G75" s="70">
         <v>3</v>
       </c>
-      <c r="H75" s="122">
+      <c r="H75" s="137">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I75" s="123"/>
+      <c r="I75" s="138"/>
       <c r="J75" s="2"/>
       <c r="K75" s="68"/>
       <c r="L75" s="67"/>
@@ -9168,23 +9181,23 @@
       <c r="A76" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="116" t="s">
+      <c r="B76" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="117"/>
-      <c r="D76" s="117"/>
-      <c r="E76" s="117"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="134"/>
+      <c r="E76" s="134"/>
       <c r="F76" s="44">
         <v>1</v>
       </c>
       <c r="G76" s="70">
         <v>4</v>
       </c>
-      <c r="H76" s="122">
+      <c r="H76" s="137">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I76" s="123"/>
+      <c r="I76" s="138"/>
       <c r="J76" s="2"/>
       <c r="K76" s="68"/>
       <c r="L76" s="67"/>
@@ -9202,23 +9215,23 @@
       <c r="A77" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="116" t="s">
+      <c r="B77" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="117"/>
-      <c r="D77" s="117"/>
-      <c r="E77" s="117"/>
+      <c r="C77" s="134"/>
+      <c r="D77" s="134"/>
+      <c r="E77" s="134"/>
       <c r="F77" s="44">
         <v>1</v>
       </c>
       <c r="G77" s="70">
         <v>5</v>
       </c>
-      <c r="H77" s="122">
+      <c r="H77" s="137">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I77" s="123"/>
+      <c r="I77" s="138"/>
       <c r="J77" s="2"/>
       <c r="K77" s="68"/>
       <c r="L77" s="67"/>
@@ -9236,23 +9249,23 @@
       <c r="A78" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="B78" s="116" t="s">
+      <c r="B78" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="117"/>
-      <c r="D78" s="117"/>
-      <c r="E78" s="117"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="134"/>
+      <c r="E78" s="134"/>
       <c r="F78" s="44">
         <v>1</v>
       </c>
       <c r="G78" s="70">
         <v>2</v>
       </c>
-      <c r="H78" s="122">
+      <c r="H78" s="137">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I78" s="123"/>
+      <c r="I78" s="138"/>
       <c r="J78" s="2"/>
       <c r="K78" s="68"/>
       <c r="L78" s="67"/>
@@ -9270,23 +9283,23 @@
       <c r="A79" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="116" t="s">
+      <c r="B79" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="117"/>
-      <c r="D79" s="117"/>
-      <c r="E79" s="117"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="134"/>
+      <c r="E79" s="134"/>
       <c r="F79" s="44">
         <v>1</v>
       </c>
       <c r="G79" s="70">
         <v>2</v>
       </c>
-      <c r="H79" s="122">
+      <c r="H79" s="137">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I79" s="123"/>
+      <c r="I79" s="138"/>
       <c r="J79" s="2"/>
       <c r="K79" s="68"/>
       <c r="L79" s="67"/>
@@ -9301,20 +9314,20 @@
       <c r="U79" s="67"/>
     </row>
     <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="118" t="s">
+      <c r="A80" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="143"/>
-      <c r="C80" s="143"/>
-      <c r="D80" s="143"/>
-      <c r="E80" s="143"/>
-      <c r="F80" s="143"/>
-      <c r="G80" s="144"/>
-      <c r="H80" s="114">
+      <c r="B80" s="164"/>
+      <c r="C80" s="164"/>
+      <c r="D80" s="164"/>
+      <c r="E80" s="164"/>
+      <c r="F80" s="164"/>
+      <c r="G80" s="165"/>
+      <c r="H80" s="159">
         <f>0.6+(0.01*(SUM(H67:I79)))</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="I80" s="115"/>
+      <c r="I80" s="160"/>
       <c r="J80" s="2"/>
       <c r="K80" s="68"/>
       <c r="L80" s="67"/>
@@ -9352,17 +9365,17 @@
       <c r="U81" s="67"/>
     </row>
     <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="111" t="s">
+      <c r="A82" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="112"/>
-      <c r="C82" s="112"/>
-      <c r="D82" s="112"/>
-      <c r="E82" s="121"/>
-      <c r="F82" s="121"/>
-      <c r="G82" s="121"/>
-      <c r="H82" s="121"/>
-      <c r="I82" s="121"/>
+      <c r="B82" s="120"/>
+      <c r="C82" s="120"/>
+      <c r="D82" s="120"/>
+      <c r="E82" s="131"/>
+      <c r="F82" s="131"/>
+      <c r="G82" s="131"/>
+      <c r="H82" s="131"/>
+      <c r="I82" s="131"/>
       <c r="J82" s="2"/>
       <c r="K82" s="68"/>
       <c r="L82" s="67"/>
@@ -9377,17 +9390,17 @@
       <c r="U82" s="67"/>
     </row>
     <row r="83" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="116" t="s">
+      <c r="A83" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="117"/>
-      <c r="C83" s="117"/>
-      <c r="D83" s="117"/>
-      <c r="E83" s="117"/>
-      <c r="F83" s="117"/>
-      <c r="G83" s="117"/>
-      <c r="H83" s="117"/>
-      <c r="I83" s="117"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="134"/>
+      <c r="G83" s="134"/>
+      <c r="H83" s="134"/>
+      <c r="I83" s="134"/>
       <c r="J83" s="2"/>
       <c r="K83" s="68"/>
       <c r="L83" s="67"/>
@@ -9402,17 +9415,17 @@
       <c r="U83" s="67"/>
     </row>
     <row r="84" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="116" t="s">
+      <c r="A84" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="B84" s="117"/>
-      <c r="C84" s="117"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
-      <c r="G84" s="117"/>
-      <c r="H84" s="121"/>
-      <c r="I84" s="121"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="134"/>
+      <c r="F84" s="134"/>
+      <c r="G84" s="134"/>
+      <c r="H84" s="131"/>
+      <c r="I84" s="131"/>
       <c r="J84" s="2"/>
       <c r="K84" s="68"/>
       <c r="L84" s="67"/>
@@ -9427,17 +9440,17 @@
       <c r="U84" s="67"/>
     </row>
     <row r="85" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="116" t="s">
+      <c r="A85" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="117"/>
-      <c r="C85" s="117"/>
-      <c r="D85" s="117"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="117"/>
-      <c r="G85" s="117"/>
-      <c r="H85" s="121"/>
-      <c r="I85" s="121"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="134"/>
+      <c r="G85" s="134"/>
+      <c r="H85" s="131"/>
+      <c r="I85" s="131"/>
       <c r="J85" s="2"/>
       <c r="K85" s="68"/>
       <c r="L85" s="67"/>
@@ -9452,17 +9465,17 @@
       <c r="U85" s="67"/>
     </row>
     <row r="86" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="116" t="s">
+      <c r="A86" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="121"/>
-      <c r="C86" s="121"/>
-      <c r="D86" s="121"/>
-      <c r="E86" s="121"/>
-      <c r="F86" s="121"/>
-      <c r="G86" s="121"/>
-      <c r="H86" s="121"/>
-      <c r="I86" s="121"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="131"/>
+      <c r="H86" s="131"/>
+      <c r="I86" s="131"/>
       <c r="J86" s="2"/>
       <c r="K86" s="68"/>
       <c r="L86" s="67"/>
@@ -9480,13 +9493,13 @@
       <c r="A87" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="135" t="s">
+      <c r="B87" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="117"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
+      <c r="F87" s="134"/>
       <c r="G87" s="42" t="s">
         <v>18</v>
       </c>
@@ -9513,13 +9526,13 @@
       <c r="A88" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B88" s="116" t="s">
+      <c r="B88" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="C88" s="117"/>
-      <c r="D88" s="117"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="117"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="134"/>
+      <c r="E88" s="134"/>
+      <c r="F88" s="134"/>
       <c r="G88" s="44">
         <v>1.5</v>
       </c>
@@ -9550,13 +9563,13 @@
       <c r="A89" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="B89" s="116" t="s">
+      <c r="B89" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="117"/>
-      <c r="D89" s="117"/>
-      <c r="E89" s="117"/>
-      <c r="F89" s="117"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="134"/>
+      <c r="E89" s="134"/>
+      <c r="F89" s="134"/>
       <c r="G89" s="44">
         <v>0.5</v>
       </c>
@@ -9587,13 +9600,13 @@
       <c r="A90" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="116" t="s">
+      <c r="B90" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="117"/>
-      <c r="D90" s="117"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="134"/>
+      <c r="F90" s="134"/>
       <c r="G90" s="44">
         <v>1</v>
       </c>
@@ -9624,13 +9637,13 @@
       <c r="A91" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="116" t="s">
+      <c r="B91" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="C91" s="117"/>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="117"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="134"/>
+      <c r="E91" s="134"/>
+      <c r="F91" s="134"/>
       <c r="G91" s="44">
         <v>0.5</v>
       </c>
@@ -9661,13 +9674,13 @@
       <c r="A92" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="116" t="s">
+      <c r="B92" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C92" s="117"/>
-      <c r="D92" s="117"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="117"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="134"/>
+      <c r="E92" s="134"/>
+      <c r="F92" s="134"/>
       <c r="G92" s="44">
         <v>1</v>
       </c>
@@ -9698,13 +9711,13 @@
       <c r="A93" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="B93" s="116" t="s">
+      <c r="B93" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="C93" s="117"/>
-      <c r="D93" s="117"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="117"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="134"/>
+      <c r="E93" s="134"/>
+      <c r="F93" s="134"/>
       <c r="G93" s="44">
         <v>2</v>
       </c>
@@ -9735,13 +9748,13 @@
       <c r="A94" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="116" t="s">
+      <c r="B94" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="117"/>
-      <c r="D94" s="117"/>
-      <c r="E94" s="117"/>
-      <c r="F94" s="117"/>
+      <c r="C94" s="134"/>
+      <c r="D94" s="134"/>
+      <c r="E94" s="134"/>
+      <c r="F94" s="134"/>
       <c r="G94" s="44">
         <v>-1</v>
       </c>
@@ -9772,13 +9785,13 @@
       <c r="A95" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="B95" s="116" t="s">
+      <c r="B95" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="C95" s="117"/>
-      <c r="D95" s="117"/>
-      <c r="E95" s="117"/>
-      <c r="F95" s="117"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="134"/>
+      <c r="E95" s="134"/>
+      <c r="F95" s="134"/>
       <c r="G95" s="44">
         <v>-1</v>
       </c>
@@ -9806,16 +9819,16 @@
       <c r="U95" s="3"/>
     </row>
     <row r="96" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="118" t="s">
+      <c r="A96" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="B96" s="119"/>
-      <c r="C96" s="119"/>
-      <c r="D96" s="119"/>
-      <c r="E96" s="119"/>
-      <c r="F96" s="119"/>
-      <c r="G96" s="119"/>
-      <c r="H96" s="120"/>
+      <c r="B96" s="162"/>
+      <c r="C96" s="162"/>
+      <c r="D96" s="162"/>
+      <c r="E96" s="162"/>
+      <c r="F96" s="162"/>
+      <c r="G96" s="162"/>
+      <c r="H96" s="163"/>
       <c r="I96" s="73">
         <f>1.4+(-0.03*(SUM(I88:I95)))</f>
         <v>0.85999999999999988</v>
@@ -9908,17 +9921,17 @@
       <c r="U99" s="3"/>
     </row>
     <row r="100" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="109" t="s">
+      <c r="A100" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="B100" s="110"/>
-      <c r="C100" s="110"/>
-      <c r="D100" s="110"/>
-      <c r="E100" s="110"/>
-      <c r="F100" s="110"/>
-      <c r="G100" s="110"/>
-      <c r="H100" s="110"/>
-      <c r="I100" s="110"/>
+      <c r="B100" s="158"/>
+      <c r="C100" s="158"/>
+      <c r="D100" s="158"/>
+      <c r="E100" s="158"/>
+      <c r="F100" s="158"/>
+      <c r="G100" s="158"/>
+      <c r="H100" s="158"/>
+      <c r="I100" s="158"/>
       <c r="J100" s="78"/>
       <c r="K100" s="78"/>
       <c r="L100" s="3"/>
@@ -9956,16 +9969,16 @@
       <c r="U101" s="3"/>
     </row>
     <row r="102" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="137" t="s">
+      <c r="A102" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="B102" s="138"/>
-      <c r="C102" s="138"/>
-      <c r="D102" s="138"/>
-      <c r="E102" s="138"/>
-      <c r="F102" s="138"/>
-      <c r="G102" s="138"/>
-      <c r="H102" s="138"/>
+      <c r="B102" s="140"/>
+      <c r="C102" s="140"/>
+      <c r="D102" s="140"/>
+      <c r="E102" s="140"/>
+      <c r="F102" s="140"/>
+      <c r="G102" s="140"/>
+      <c r="H102" s="140"/>
       <c r="I102" s="2"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -10165,17 +10178,17 @@
       <c r="U108" s="3"/>
     </row>
     <row r="109" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="156" t="s">
+      <c r="A109" s="124" t="s">
         <v>141</v>
       </c>
-      <c r="B109" s="157"/>
-      <c r="C109" s="157"/>
-      <c r="D109" s="157"/>
-      <c r="E109" s="157"/>
-      <c r="F109" s="157"/>
-      <c r="G109" s="157"/>
-      <c r="H109" s="157"/>
-      <c r="I109" s="158"/>
+      <c r="B109" s="125"/>
+      <c r="C109" s="125"/>
+      <c r="D109" s="125"/>
+      <c r="E109" s="125"/>
+      <c r="F109" s="125"/>
+      <c r="G109" s="125"/>
+      <c r="H109" s="125"/>
+      <c r="I109" s="126"/>
       <c r="J109" s="26"/>
       <c r="K109" s="26"/>
       <c r="L109" s="3"/>
@@ -10190,17 +10203,17 @@
       <c r="U109" s="3"/>
     </row>
     <row r="110" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="152" t="s">
+      <c r="A110" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="B110" s="112"/>
-      <c r="C110" s="112"/>
-      <c r="D110" s="112"/>
-      <c r="E110" s="112"/>
-      <c r="F110" s="112"/>
-      <c r="G110" s="112"/>
-      <c r="H110" s="112"/>
-      <c r="I110" s="153"/>
+      <c r="B110" s="120"/>
+      <c r="C110" s="120"/>
+      <c r="D110" s="120"/>
+      <c r="E110" s="120"/>
+      <c r="F110" s="120"/>
+      <c r="G110" s="120"/>
+      <c r="H110" s="120"/>
+      <c r="I110" s="121"/>
       <c r="J110" s="26"/>
       <c r="K110" s="26"/>
       <c r="L110" s="3"/>
@@ -10215,17 +10228,17 @@
       <c r="U110" s="3"/>
     </row>
     <row r="111" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="145" t="s">
+      <c r="A111" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="B111" s="117"/>
-      <c r="C111" s="117"/>
-      <c r="D111" s="117"/>
-      <c r="E111" s="117"/>
-      <c r="F111" s="117"/>
-      <c r="G111" s="117"/>
-      <c r="H111" s="117"/>
-      <c r="I111" s="146"/>
+      <c r="B111" s="134"/>
+      <c r="C111" s="134"/>
+      <c r="D111" s="134"/>
+      <c r="E111" s="134"/>
+      <c r="F111" s="134"/>
+      <c r="G111" s="134"/>
+      <c r="H111" s="134"/>
+      <c r="I111" s="135"/>
       <c r="J111" s="26"/>
       <c r="K111" s="26"/>
       <c r="L111" s="3"/>
@@ -10240,17 +10253,17 @@
       <c r="U111" s="3"/>
     </row>
     <row r="112" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="145" t="s">
+      <c r="A112" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="B112" s="117"/>
-      <c r="C112" s="117"/>
-      <c r="D112" s="117"/>
-      <c r="E112" s="117"/>
-      <c r="F112" s="117"/>
-      <c r="G112" s="117"/>
-      <c r="H112" s="117"/>
-      <c r="I112" s="146"/>
+      <c r="B112" s="134"/>
+      <c r="C112" s="134"/>
+      <c r="D112" s="134"/>
+      <c r="E112" s="134"/>
+      <c r="F112" s="134"/>
+      <c r="G112" s="134"/>
+      <c r="H112" s="134"/>
+      <c r="I112" s="135"/>
       <c r="J112" s="26"/>
       <c r="K112" s="26"/>
       <c r="L112" s="3"/>
@@ -10265,16 +10278,16 @@
       <c r="U112" s="3"/>
     </row>
     <row r="113" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="159"/>
-      <c r="B113" s="160"/>
-      <c r="C113" s="160"/>
-      <c r="D113" s="160"/>
-      <c r="E113" s="160"/>
-      <c r="F113" s="161"/>
-      <c r="G113" s="147" t="s">
+      <c r="A113" s="127"/>
+      <c r="B113" s="128"/>
+      <c r="C113" s="128"/>
+      <c r="D113" s="128"/>
+      <c r="E113" s="128"/>
+      <c r="F113" s="129"/>
+      <c r="G113" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="H113" s="148"/>
+      <c r="H113" s="118"/>
       <c r="I113" s="92">
         <f>SUM(J88:J93)</f>
         <v>0</v>
@@ -10293,16 +10306,16 @@
       <c r="U113" s="3"/>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="159"/>
-      <c r="B114" s="160"/>
-      <c r="C114" s="160"/>
-      <c r="D114" s="160"/>
-      <c r="E114" s="160"/>
-      <c r="F114" s="161"/>
-      <c r="G114" s="147" t="s">
+      <c r="A114" s="127"/>
+      <c r="B114" s="128"/>
+      <c r="C114" s="128"/>
+      <c r="D114" s="128"/>
+      <c r="E114" s="128"/>
+      <c r="F114" s="129"/>
+      <c r="G114" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="H114" s="148"/>
+      <c r="H114" s="118"/>
       <c r="I114" s="92">
         <f>SUM(J94:J95)</f>
         <v>1</v>
@@ -10321,16 +10334,16 @@
       <c r="U114" s="3"/>
     </row>
     <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="159"/>
-      <c r="B115" s="160"/>
-      <c r="C115" s="160"/>
-      <c r="D115" s="160"/>
-      <c r="E115" s="160"/>
-      <c r="F115" s="161"/>
-      <c r="G115" s="147" t="s">
+      <c r="A115" s="127"/>
+      <c r="B115" s="128"/>
+      <c r="C115" s="128"/>
+      <c r="D115" s="128"/>
+      <c r="E115" s="128"/>
+      <c r="F115" s="129"/>
+      <c r="G115" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="H115" s="148"/>
+      <c r="H115" s="118"/>
       <c r="I115" s="92">
         <f>I113+I114</f>
         <v>1</v>
@@ -10349,16 +10362,16 @@
       <c r="U115" s="3"/>
     </row>
     <row r="116" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="154" t="s">
+      <c r="A116" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="B116" s="155"/>
-      <c r="C116" s="155"/>
-      <c r="D116" s="155"/>
-      <c r="E116" s="155"/>
-      <c r="F116" s="155"/>
-      <c r="G116" s="155"/>
-      <c r="H116" s="155"/>
+      <c r="B116" s="123"/>
+      <c r="C116" s="123"/>
+      <c r="D116" s="123"/>
+      <c r="E116" s="123"/>
+      <c r="F116" s="123"/>
+      <c r="G116" s="123"/>
+      <c r="H116" s="123"/>
       <c r="I116" s="93">
         <f>C124</f>
         <v>20</v>
@@ -10377,17 +10390,17 @@
       <c r="U116" s="3"/>
     </row>
     <row r="117" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="152" t="s">
+      <c r="A117" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B117" s="112"/>
-      <c r="C117" s="112"/>
-      <c r="D117" s="112"/>
-      <c r="E117" s="112"/>
-      <c r="F117" s="112"/>
-      <c r="G117" s="112"/>
-      <c r="H117" s="112"/>
-      <c r="I117" s="153"/>
+      <c r="B117" s="120"/>
+      <c r="C117" s="120"/>
+      <c r="D117" s="120"/>
+      <c r="E117" s="120"/>
+      <c r="F117" s="120"/>
+      <c r="G117" s="120"/>
+      <c r="H117" s="120"/>
+      <c r="I117" s="121"/>
       <c r="J117" s="26"/>
       <c r="K117" s="26"/>
       <c r="L117" s="3"/>
@@ -10402,17 +10415,17 @@
       <c r="U117" s="3"/>
     </row>
     <row r="118" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="141" t="s">
+      <c r="A118" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="B118" s="121"/>
-      <c r="C118" s="121"/>
-      <c r="D118" s="121"/>
-      <c r="E118" s="121"/>
-      <c r="F118" s="121"/>
-      <c r="G118" s="121"/>
-      <c r="H118" s="121"/>
-      <c r="I118" s="142"/>
+      <c r="B118" s="131"/>
+      <c r="C118" s="131"/>
+      <c r="D118" s="131"/>
+      <c r="E118" s="131"/>
+      <c r="F118" s="131"/>
+      <c r="G118" s="131"/>
+      <c r="H118" s="131"/>
+      <c r="I118" s="132"/>
       <c r="J118" s="26"/>
       <c r="K118" s="26"/>
       <c r="L118" s="3"/>
@@ -10427,17 +10440,17 @@
       <c r="U118" s="3"/>
     </row>
     <row r="119" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="141" t="s">
+      <c r="A119" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="121"/>
-      <c r="C119" s="121"/>
-      <c r="D119" s="121"/>
-      <c r="E119" s="121"/>
-      <c r="F119" s="121"/>
-      <c r="G119" s="121"/>
-      <c r="H119" s="121"/>
-      <c r="I119" s="142"/>
+      <c r="B119" s="131"/>
+      <c r="C119" s="131"/>
+      <c r="D119" s="131"/>
+      <c r="E119" s="131"/>
+      <c r="F119" s="131"/>
+      <c r="G119" s="131"/>
+      <c r="H119" s="131"/>
+      <c r="I119" s="132"/>
       <c r="J119" s="26"/>
       <c r="K119" s="26"/>
       <c r="L119" s="3"/>
@@ -10452,17 +10465,17 @@
       <c r="U119" s="3"/>
     </row>
     <row r="120" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="149" t="s">
+      <c r="A120" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="B120" s="150"/>
-      <c r="C120" s="150"/>
-      <c r="D120" s="150"/>
-      <c r="E120" s="150"/>
-      <c r="F120" s="150"/>
-      <c r="G120" s="150"/>
-      <c r="H120" s="150"/>
-      <c r="I120" s="151"/>
+      <c r="B120" s="115"/>
+      <c r="C120" s="115"/>
+      <c r="D120" s="115"/>
+      <c r="E120" s="115"/>
+      <c r="F120" s="115"/>
+      <c r="G120" s="115"/>
+      <c r="H120" s="115"/>
+      <c r="I120" s="116"/>
       <c r="J120" s="26"/>
       <c r="K120" s="26"/>
       <c r="L120" s="3"/>
@@ -10500,16 +10513,16 @@
       <c r="U121" s="3"/>
     </row>
     <row r="122" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="137" t="s">
+      <c r="A122" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="B122" s="138"/>
-      <c r="C122" s="138"/>
-      <c r="D122" s="138"/>
-      <c r="E122" s="138"/>
-      <c r="F122" s="138"/>
-      <c r="G122" s="138"/>
-      <c r="H122" s="138"/>
+      <c r="B122" s="140"/>
+      <c r="C122" s="140"/>
+      <c r="D122" s="140"/>
+      <c r="E122" s="140"/>
+      <c r="F122" s="140"/>
+      <c r="G122" s="140"/>
+      <c r="H122" s="140"/>
       <c r="I122" s="2"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -10813,6 +10826,92 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A83:I83"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
@@ -10837,92 +10936,6 @@
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A122:H122"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A118:I118"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="A85:I85"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="A96:H96"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A83:I83"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B48:C48"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B27" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -10941,4 +10954,3479 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A59085-AAAB-4B4A-8C36-5E2833AD60D4}">
+  <dimension ref="A1:U118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:I106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="105" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="105" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="105" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="105" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="105" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="105" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="105" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="105" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="105" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="105"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17">
+        <v>44096</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="21">
+        <v>4</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="151"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="44">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="44">
+        <v>2</v>
+      </c>
+      <c r="J19" s="45">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="44">
+        <v>3</v>
+      </c>
+      <c r="J20" s="45">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49">
+        <v>3</v>
+      </c>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="143" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="144"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="112">
+        <v>3</v>
+      </c>
+      <c r="C23" s="113"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="112">
+        <v>3</v>
+      </c>
+      <c r="C24" s="113"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="112">
+        <v>3</v>
+      </c>
+      <c r="C25" s="113"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="112">
+        <v>2</v>
+      </c>
+      <c r="C26" s="113"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="159">
+        <f>SUM(B23:C26)</f>
+        <v>11</v>
+      </c>
+      <c r="C27" s="160"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="44">
+        <v>5</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="44">
+        <v>10</v>
+      </c>
+      <c r="J32" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="44">
+        <v>15</v>
+      </c>
+      <c r="J33" s="45">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="49">
+        <v>7.5</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="143" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="144"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="49">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="110">
+        <v>5</v>
+      </c>
+      <c r="C36" s="111"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="110">
+        <v>5</v>
+      </c>
+      <c r="C37" s="111"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="110">
+        <v>5</v>
+      </c>
+      <c r="C38" s="111"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="110">
+        <v>5</v>
+      </c>
+      <c r="C39" s="111"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="110">
+        <v>5</v>
+      </c>
+      <c r="C40" s="111"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="110">
+        <v>5</v>
+      </c>
+      <c r="C41" s="111"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="110">
+        <v>5</v>
+      </c>
+      <c r="C42" s="111"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="141">
+        <f>SUM(B36:B42)</f>
+        <v>35</v>
+      </c>
+      <c r="C43" s="142"/>
+      <c r="D43" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="60"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="64"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+    </row>
+    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="159">
+        <f>B27+B43</f>
+        <v>46</v>
+      </c>
+      <c r="C45" s="160"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+    </row>
+    <row r="46" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+    </row>
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="146" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="67"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="67"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="67"/>
+    </row>
+    <row r="48" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="136" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="134"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="67"/>
+    </row>
+    <row r="49" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="134"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="67"/>
+      <c r="Q49" s="67"/>
+      <c r="R49" s="67"/>
+      <c r="S49" s="67"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="67"/>
+    </row>
+    <row r="50" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
+      <c r="T50" s="67"/>
+      <c r="U50" s="67"/>
+    </row>
+    <row r="51" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="136" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="131"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
+      <c r="T51" s="67"/>
+      <c r="U51" s="67"/>
+    </row>
+    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="146" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" s="120"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="67"/>
+      <c r="R52" s="67"/>
+      <c r="S52" s="67"/>
+      <c r="T52" s="67"/>
+      <c r="U52" s="67"/>
+    </row>
+    <row r="53" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="44">
+        <v>2</v>
+      </c>
+      <c r="G53" s="70">
+        <v>5</v>
+      </c>
+      <c r="H53" s="137">
+        <f t="shared" ref="H53:H65" si="0">F53*G53</f>
+        <v>10</v>
+      </c>
+      <c r="I53" s="138"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+    </row>
+    <row r="54" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="136" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="44">
+        <v>1</v>
+      </c>
+      <c r="G54" s="70">
+        <v>5</v>
+      </c>
+      <c r="H54" s="137">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I54" s="138"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+    </row>
+    <row r="55" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="44">
+        <v>1</v>
+      </c>
+      <c r="G55" s="70">
+        <v>2</v>
+      </c>
+      <c r="H55" s="137">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I55" s="138"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="67"/>
+      <c r="P55" s="67"/>
+      <c r="Q55" s="67"/>
+      <c r="R55" s="67"/>
+      <c r="S55" s="67"/>
+      <c r="T55" s="67"/>
+      <c r="U55" s="67"/>
+    </row>
+    <row r="56" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="44">
+        <v>1</v>
+      </c>
+      <c r="G56" s="70">
+        <v>4</v>
+      </c>
+      <c r="H56" s="137">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I56" s="138"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+    </row>
+    <row r="57" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="44">
+        <v>1</v>
+      </c>
+      <c r="G57" s="70">
+        <v>0</v>
+      </c>
+      <c r="H57" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="138"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+    </row>
+    <row r="58" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="70">
+        <v>5</v>
+      </c>
+      <c r="H58" s="137">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I58" s="138"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+    </row>
+    <row r="59" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="70">
+        <v>5</v>
+      </c>
+      <c r="H59" s="137">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I59" s="138"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+    </row>
+    <row r="60" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="44">
+        <v>2</v>
+      </c>
+      <c r="G60" s="70">
+        <v>5</v>
+      </c>
+      <c r="H60" s="137">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I60" s="138"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="67"/>
+    </row>
+    <row r="61" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="44">
+        <v>1</v>
+      </c>
+      <c r="G61" s="70">
+        <v>3</v>
+      </c>
+      <c r="H61" s="137">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I61" s="138"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+    </row>
+    <row r="62" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="44">
+        <v>1</v>
+      </c>
+      <c r="G62" s="70">
+        <v>4</v>
+      </c>
+      <c r="H62" s="137">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I62" s="138"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="67"/>
+    </row>
+    <row r="63" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="44">
+        <v>1</v>
+      </c>
+      <c r="G63" s="70">
+        <v>5</v>
+      </c>
+      <c r="H63" s="137">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I63" s="138"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+    </row>
+    <row r="64" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="44">
+        <v>1</v>
+      </c>
+      <c r="G64" s="70">
+        <v>2</v>
+      </c>
+      <c r="H64" s="137">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I64" s="138"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="67"/>
+      <c r="U64" s="67"/>
+    </row>
+    <row r="65" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="44">
+        <v>1</v>
+      </c>
+      <c r="G65" s="70">
+        <v>2</v>
+      </c>
+      <c r="H65" s="137">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I65" s="138"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
+      <c r="T65" s="67"/>
+      <c r="U65" s="67"/>
+    </row>
+    <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="161" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" s="164"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="164"/>
+      <c r="F66" s="164"/>
+      <c r="G66" s="165"/>
+      <c r="H66" s="159">
+        <f>0.6+(0.01*(SUM(H53:I65)))</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I66" s="160"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="67"/>
+      <c r="P66" s="67"/>
+      <c r="Q66" s="67"/>
+      <c r="R66" s="67"/>
+      <c r="S66" s="67"/>
+      <c r="T66" s="67"/>
+      <c r="U66" s="67"/>
+    </row>
+    <row r="67" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="54"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="67"/>
+      <c r="O67" s="67"/>
+      <c r="P67" s="67"/>
+      <c r="Q67" s="67"/>
+      <c r="R67" s="67"/>
+      <c r="S67" s="67"/>
+      <c r="T67" s="67"/>
+      <c r="U67" s="67"/>
+    </row>
+    <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="146" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="120"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="131"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="131"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="67"/>
+      <c r="O68" s="67"/>
+      <c r="P68" s="67"/>
+      <c r="Q68" s="67"/>
+      <c r="R68" s="67"/>
+      <c r="S68" s="67"/>
+      <c r="T68" s="67"/>
+      <c r="U68" s="67"/>
+    </row>
+    <row r="69" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="136" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="134"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="134"/>
+      <c r="E69" s="134"/>
+      <c r="F69" s="134"/>
+      <c r="G69" s="134"/>
+      <c r="H69" s="134"/>
+      <c r="I69" s="134"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="67"/>
+      <c r="O69" s="67"/>
+      <c r="P69" s="67"/>
+      <c r="Q69" s="67"/>
+      <c r="R69" s="67"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="67"/>
+      <c r="U69" s="67"/>
+    </row>
+    <row r="70" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="134"/>
+      <c r="C70" s="134"/>
+      <c r="D70" s="134"/>
+      <c r="E70" s="134"/>
+      <c r="F70" s="134"/>
+      <c r="G70" s="134"/>
+      <c r="H70" s="131"/>
+      <c r="I70" s="131"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="67"/>
+      <c r="N70" s="67"/>
+      <c r="O70" s="67"/>
+      <c r="P70" s="67"/>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="67"/>
+      <c r="U70" s="67"/>
+    </row>
+    <row r="71" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="134"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="131"/>
+      <c r="I71" s="131"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="67"/>
+      <c r="N71" s="67"/>
+      <c r="O71" s="67"/>
+      <c r="P71" s="67"/>
+      <c r="Q71" s="67"/>
+      <c r="R71" s="67"/>
+      <c r="S71" s="67"/>
+      <c r="T71" s="67"/>
+      <c r="U71" s="67"/>
+    </row>
+    <row r="72" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="131"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="131"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="131"/>
+      <c r="G72" s="131"/>
+      <c r="H72" s="131"/>
+      <c r="I72" s="131"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="67"/>
+      <c r="N72" s="67"/>
+      <c r="O72" s="67"/>
+      <c r="P72" s="67"/>
+      <c r="Q72" s="67"/>
+      <c r="R72" s="67"/>
+      <c r="S72" s="67"/>
+      <c r="T72" s="67"/>
+      <c r="U72" s="67"/>
+    </row>
+    <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="I73" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="67"/>
+      <c r="O73" s="67"/>
+      <c r="P73" s="67"/>
+      <c r="Q73" s="67"/>
+      <c r="R73" s="67"/>
+      <c r="S73" s="67"/>
+      <c r="T73" s="67"/>
+      <c r="U73" s="67"/>
+    </row>
+    <row r="74" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="H74" s="70">
+        <v>3</v>
+      </c>
+      <c r="I74" s="109">
+        <f t="shared" ref="I74:I81" si="1">G74*H74</f>
+        <v>4.5</v>
+      </c>
+      <c r="J74" s="45">
+        <f t="shared" ref="J74:J79" si="2">IF(H74&lt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="68"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="67"/>
+      <c r="O74" s="67"/>
+      <c r="P74" s="67"/>
+      <c r="Q74" s="67"/>
+      <c r="R74" s="67"/>
+      <c r="S74" s="67"/>
+      <c r="T74" s="67"/>
+      <c r="U74" s="67"/>
+    </row>
+    <row r="75" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="136" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="134"/>
+      <c r="D75" s="134"/>
+      <c r="E75" s="134"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="H75" s="70">
+        <v>4</v>
+      </c>
+      <c r="I75" s="109">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J75" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="2"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+    </row>
+    <row r="76" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="134"/>
+      <c r="D76" s="134"/>
+      <c r="E76" s="134"/>
+      <c r="F76" s="134"/>
+      <c r="G76" s="44">
+        <v>1</v>
+      </c>
+      <c r="H76" s="70">
+        <v>5</v>
+      </c>
+      <c r="I76" s="109">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J76" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="2"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+    </row>
+    <row r="77" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="136" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="134"/>
+      <c r="D77" s="134"/>
+      <c r="E77" s="134"/>
+      <c r="F77" s="134"/>
+      <c r="G77" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="H77" s="70">
+        <v>3</v>
+      </c>
+      <c r="I77" s="109">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="J77" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="2"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+    </row>
+    <row r="78" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="134"/>
+      <c r="D78" s="134"/>
+      <c r="E78" s="134"/>
+      <c r="F78" s="134"/>
+      <c r="G78" s="44">
+        <v>1</v>
+      </c>
+      <c r="H78" s="70">
+        <v>4</v>
+      </c>
+      <c r="I78" s="109">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J78" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+    </row>
+    <row r="79" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="134"/>
+      <c r="D79" s="134"/>
+      <c r="E79" s="134"/>
+      <c r="F79" s="134"/>
+      <c r="G79" s="44">
+        <v>2</v>
+      </c>
+      <c r="H79" s="70">
+        <v>4</v>
+      </c>
+      <c r="I79" s="109">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J79" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+    </row>
+    <row r="80" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="136" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="134"/>
+      <c r="D80" s="134"/>
+      <c r="E80" s="134"/>
+      <c r="F80" s="134"/>
+      <c r="G80" s="44">
+        <v>-1</v>
+      </c>
+      <c r="H80" s="70">
+        <v>5</v>
+      </c>
+      <c r="I80" s="109">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="J80" s="45">
+        <f>IF(H80&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K80" s="2"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+    </row>
+    <row r="81" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="136" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="134"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="44">
+        <v>-1</v>
+      </c>
+      <c r="H81" s="70">
+        <v>2</v>
+      </c>
+      <c r="I81" s="109">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="J81" s="45">
+        <f>IF(H81&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="2"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+    </row>
+    <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="161" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="162"/>
+      <c r="C82" s="162"/>
+      <c r="D82" s="162"/>
+      <c r="E82" s="162"/>
+      <c r="F82" s="162"/>
+      <c r="G82" s="162"/>
+      <c r="H82" s="163"/>
+      <c r="I82" s="73">
+        <f>1.4+(-0.03*(SUM(I74:I81)))</f>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="54"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+    </row>
+    <row r="84" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="74">
+        <f>(B45*H66*I82)</f>
+        <v>44.307199999999995</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+    </row>
+    <row r="85" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="75"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+    </row>
+    <row r="86" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="157" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="158"/>
+      <c r="C86" s="158"/>
+      <c r="D86" s="158"/>
+      <c r="E86" s="158"/>
+      <c r="F86" s="158"/>
+      <c r="G86" s="158"/>
+      <c r="H86" s="158"/>
+      <c r="I86" s="158"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+    </row>
+    <row r="87" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="79"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="80"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+    </row>
+    <row r="88" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="139" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="140"/>
+      <c r="C88" s="140"/>
+      <c r="D88" s="140"/>
+      <c r="E88" s="140"/>
+      <c r="F88" s="140"/>
+      <c r="G88" s="140"/>
+      <c r="H88" s="140"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+    </row>
+    <row r="89" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F89" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="G89" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="H89" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="I89" s="2"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+    </row>
+    <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="107"/>
+      <c r="B90" s="74">
+        <f>B84</f>
+        <v>44.307199999999995</v>
+      </c>
+      <c r="C90" s="82">
+        <v>20</v>
+      </c>
+      <c r="D90" s="82">
+        <f>B90*C90</f>
+        <v>886.14399999999989</v>
+      </c>
+      <c r="E90" s="82">
+        <f>D90/8</f>
+        <v>110.76799999999999</v>
+      </c>
+      <c r="F90" s="83">
+        <f>E90/20</f>
+        <v>5.5383999999999993</v>
+      </c>
+      <c r="G90" s="84">
+        <v>15</v>
+      </c>
+      <c r="H90" s="85">
+        <f>G90*D90</f>
+        <v>13292.159999999998</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="86">
+        <v>3</v>
+      </c>
+      <c r="B91" s="87"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="82">
+        <f>D90/A91</f>
+        <v>295.38133333333332</v>
+      </c>
+      <c r="E91" s="82">
+        <f>D91/8</f>
+        <v>36.922666666666665</v>
+      </c>
+      <c r="F91" s="83">
+        <f>E91/20</f>
+        <v>1.8461333333333332</v>
+      </c>
+      <c r="G91" s="88"/>
+      <c r="H91" s="88"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+    </row>
+    <row r="92" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="89"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="89"/>
+      <c r="F92" s="90"/>
+      <c r="G92" s="89"/>
+      <c r="H92" s="89"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+    </row>
+    <row r="93" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+    </row>
+    <row r="94" spans="1:21" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="91"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="91"/>
+      <c r="G94" s="91"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="91"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+    </row>
+    <row r="95" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="124" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" s="125"/>
+      <c r="C95" s="125"/>
+      <c r="D95" s="125"/>
+      <c r="E95" s="125"/>
+      <c r="F95" s="125"/>
+      <c r="G95" s="125"/>
+      <c r="H95" s="125"/>
+      <c r="I95" s="126"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="120"/>
+      <c r="C96" s="120"/>
+      <c r="D96" s="120"/>
+      <c r="E96" s="120"/>
+      <c r="F96" s="120"/>
+      <c r="G96" s="120"/>
+      <c r="H96" s="120"/>
+      <c r="I96" s="121"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+    </row>
+    <row r="97" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="133" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="134"/>
+      <c r="C97" s="134"/>
+      <c r="D97" s="134"/>
+      <c r="E97" s="134"/>
+      <c r="F97" s="134"/>
+      <c r="G97" s="134"/>
+      <c r="H97" s="134"/>
+      <c r="I97" s="135"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+    </row>
+    <row r="98" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="134"/>
+      <c r="C98" s="134"/>
+      <c r="D98" s="134"/>
+      <c r="E98" s="134"/>
+      <c r="F98" s="134"/>
+      <c r="G98" s="134"/>
+      <c r="H98" s="134"/>
+      <c r="I98" s="135"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+    </row>
+    <row r="99" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="127"/>
+      <c r="B99" s="128"/>
+      <c r="C99" s="128"/>
+      <c r="D99" s="128"/>
+      <c r="E99" s="128"/>
+      <c r="F99" s="129"/>
+      <c r="G99" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="H99" s="118"/>
+      <c r="I99" s="92">
+        <f>SUM(J74:J79)</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+    </row>
+    <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="127"/>
+      <c r="B100" s="128"/>
+      <c r="C100" s="128"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="129"/>
+      <c r="G100" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="H100" s="118"/>
+      <c r="I100" s="92">
+        <f>SUM(J80:J81)</f>
+        <v>1</v>
+      </c>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+    </row>
+    <row r="101" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="127"/>
+      <c r="B101" s="128"/>
+      <c r="C101" s="128"/>
+      <c r="D101" s="128"/>
+      <c r="E101" s="128"/>
+      <c r="F101" s="129"/>
+      <c r="G101" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="H101" s="118"/>
+      <c r="I101" s="92">
+        <f>I99+I100</f>
+        <v>1</v>
+      </c>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+    </row>
+    <row r="102" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="122" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" s="123"/>
+      <c r="C102" s="123"/>
+      <c r="D102" s="123"/>
+      <c r="E102" s="123"/>
+      <c r="F102" s="123"/>
+      <c r="G102" s="123"/>
+      <c r="H102" s="123"/>
+      <c r="I102" s="93">
+        <f>C110</f>
+        <v>20</v>
+      </c>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+    </row>
+    <row r="103" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="B103" s="120"/>
+      <c r="C103" s="120"/>
+      <c r="D103" s="120"/>
+      <c r="E103" s="120"/>
+      <c r="F103" s="120"/>
+      <c r="G103" s="120"/>
+      <c r="H103" s="120"/>
+      <c r="I103" s="121"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+    </row>
+    <row r="104" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" s="131"/>
+      <c r="C104" s="131"/>
+      <c r="D104" s="131"/>
+      <c r="E104" s="131"/>
+      <c r="F104" s="131"/>
+      <c r="G104" s="131"/>
+      <c r="H104" s="131"/>
+      <c r="I104" s="132"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+    </row>
+    <row r="105" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="B105" s="131"/>
+      <c r="C105" s="131"/>
+      <c r="D105" s="131"/>
+      <c r="E105" s="131"/>
+      <c r="F105" s="131"/>
+      <c r="G105" s="131"/>
+      <c r="H105" s="131"/>
+      <c r="I105" s="132"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+    </row>
+    <row r="106" spans="1:21" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" s="115"/>
+      <c r="C106" s="115"/>
+      <c r="D106" s="115"/>
+      <c r="E106" s="115"/>
+      <c r="F106" s="115"/>
+      <c r="G106" s="115"/>
+      <c r="H106" s="115"/>
+      <c r="I106" s="116"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+    </row>
+    <row r="107" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="94"/>
+      <c r="B107" s="94"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="94"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="94"/>
+      <c r="H107" s="94"/>
+      <c r="I107" s="95"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+    </row>
+    <row r="108" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="139" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" s="140"/>
+      <c r="C108" s="140"/>
+      <c r="D108" s="140"/>
+      <c r="E108" s="140"/>
+      <c r="F108" s="140"/>
+      <c r="G108" s="140"/>
+      <c r="H108" s="140"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+    </row>
+    <row r="109" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E109" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F109" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="G109" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="H109" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+    </row>
+    <row r="110" spans="1:21" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="96"/>
+      <c r="B110" s="74">
+        <f>B84</f>
+        <v>44.307199999999995</v>
+      </c>
+      <c r="C110" s="82">
+        <f>IF(I101&lt;=2,20,IF(I101&lt;5,28,"Reduzir a complexidade"))</f>
+        <v>20</v>
+      </c>
+      <c r="D110" s="82">
+        <f>IF(I101&lt;=2,20*B110,IF(I101&lt;5,28*B110,"-"))</f>
+        <v>886.14399999999989</v>
+      </c>
+      <c r="E110" s="82">
+        <f>IF(I101&lt;=2,20*B110/8,IF(I101&lt;5,28*B110/8,"-"))</f>
+        <v>110.76799999999999</v>
+      </c>
+      <c r="F110" s="97">
+        <f>IF(I101&lt;=2,20*B110/20/8,IF(I101&lt;5,28*B110/20/8,"-"))</f>
+        <v>5.5383999999999993</v>
+      </c>
+      <c r="G110" s="85">
+        <f>G90</f>
+        <v>15</v>
+      </c>
+      <c r="H110" s="98">
+        <f>IF(I101&lt;=2,20*B110*G110,IF(I101&lt;5,28*B110*G110,"-"))</f>
+        <v>13292.159999999998</v>
+      </c>
+      <c r="I110" s="78"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+    </row>
+    <row r="111" spans="1:21" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="99">
+        <f>A91</f>
+        <v>3</v>
+      </c>
+      <c r="B111" s="87"/>
+      <c r="C111" s="87"/>
+      <c r="D111" s="82">
+        <f>IF(I101&lt;=2,20*B110/A111,IF(I101&lt;5,28*B110/A111,"-"))</f>
+        <v>295.38133333333332</v>
+      </c>
+      <c r="E111" s="82">
+        <f>IF(I101&lt;=2,20*B110/A111/8,IF(I101&lt;5,28*B110/A111/8,"-"))</f>
+        <v>36.922666666666665</v>
+      </c>
+      <c r="F111" s="97">
+        <f>IF(I101&lt;=2,20*B110/A111/20/8,IF(I101&lt;5,28*B110/A111/20/8,"-"))</f>
+        <v>1.8461333333333332</v>
+      </c>
+      <c r="G111" s="88"/>
+      <c r="H111" s="88"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+    </row>
+    <row r="112" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="95"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="57"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+    </row>
+    <row r="113" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+    </row>
+    <row r="114" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+    </row>
+    <row r="115" spans="1:21" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+    </row>
+    <row r="116" spans="1:21" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="101"/>
+      <c r="B116" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+    </row>
+    <row r="117" spans="1:21" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="103"/>
+      <c r="B117" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+    </row>
+    <row r="118" spans="1:21" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="104"/>
+      <c r="B118" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="96">
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="A104:I104"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="A106:I106"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53:G65 H74:H81" xr:uid="{0198AD4F-FF9B-354B-8EB0-D7B08E87D81B}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 C38:C40 B36:B42" xr:uid="{A2480788-A2BE-1F41-B2D0-308FB0F6D814}">
+      <formula1>"5,10,15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B26" xr:uid="{90D6683A-4A2C-D741-A640-3ADB7A45FF13}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>